--- a/tests/data/20250305_experiment_file.xlsx
+++ b/tests/data/20250305_experiment_file.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Desktop-PC\PycharmProjects\nomad-hysprint\tests\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17323FD9-1895-4553-A1C8-3DBC035C9993}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB17D7A1-13D6-433B-8F34-5988C92EB259}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-30828" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1487" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1471" uniqueCount="163">
   <si>
     <t>Experiment Info</t>
   </si>
@@ -426,9 +426,6 @@
   </si>
   <si>
     <t>1000 rpm</t>
-  </si>
-  <si>
-    <t>1 cm x 1 cm</t>
   </si>
   <si>
     <t>Glass</t>
@@ -1027,8 +1024,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:GY18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="EH1" workbookViewId="0">
-      <selection activeCell="EM25" sqref="EM25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3:H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2115,8 +2112,9 @@
       <c r="G3" t="s">
         <v>130</v>
       </c>
-      <c r="H3" t="s">
-        <v>131</v>
+      <c r="H3">
+        <f>2.5*2.5</f>
+        <v>6.25</v>
       </c>
       <c r="I3">
         <v>0.16</v>
@@ -2128,19 +2126,19 @@
         <v>0.16</v>
       </c>
       <c r="L3" t="s">
+        <v>131</v>
+      </c>
+      <c r="M3" t="s">
         <v>132</v>
-      </c>
-      <c r="M3" t="s">
-        <v>133</v>
       </c>
       <c r="N3">
         <v>1</v>
       </c>
       <c r="O3" t="s">
+        <v>133</v>
+      </c>
+      <c r="P3" t="s">
         <v>134</v>
-      </c>
-      <c r="P3" t="s">
-        <v>135</v>
       </c>
       <c r="Q3">
         <v>31</v>
@@ -2149,7 +2147,7 @@
         <v>61</v>
       </c>
       <c r="S3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="T3">
         <v>32</v>
@@ -2158,7 +2156,7 @@
         <v>62</v>
       </c>
       <c r="V3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="W3">
         <v>180</v>
@@ -2167,7 +2165,7 @@
         <v>50</v>
       </c>
       <c r="Y3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="Z3">
         <v>31</v>
@@ -2176,7 +2174,7 @@
         <v>61</v>
       </c>
       <c r="AB3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AC3">
         <v>32</v>
@@ -2188,16 +2186,16 @@
         <v>900</v>
       </c>
       <c r="AF3" t="s">
+        <v>136</v>
+      </c>
+      <c r="AG3" t="s">
         <v>137</v>
       </c>
-      <c r="AG3" t="s">
+      <c r="AH3" t="s">
         <v>138</v>
       </c>
-      <c r="AH3" t="s">
+      <c r="AI3" t="s">
         <v>139</v>
-      </c>
-      <c r="AI3" t="s">
-        <v>140</v>
       </c>
       <c r="AJ3">
         <v>10</v>
@@ -2206,7 +2204,7 @@
         <v>1.5</v>
       </c>
       <c r="AL3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AM3">
         <v>1.42</v>
@@ -2233,22 +2231,22 @@
         <v>120</v>
       </c>
       <c r="AU3" t="s">
+        <v>141</v>
+      </c>
+      <c r="AV3" t="s">
         <v>142</v>
       </c>
-      <c r="AV3" t="s">
-        <v>143</v>
-      </c>
       <c r="AW3" t="s">
+        <v>136</v>
+      </c>
+      <c r="AX3" t="s">
         <v>137</v>
       </c>
-      <c r="AX3" t="s">
+      <c r="AY3" t="s">
         <v>138</v>
       </c>
-      <c r="AY3" t="s">
+      <c r="AZ3" t="s">
         <v>139</v>
-      </c>
-      <c r="AZ3" t="s">
-        <v>140</v>
       </c>
       <c r="BA3">
         <v>10</v>
@@ -2257,7 +2255,7 @@
         <v>1.5</v>
       </c>
       <c r="BC3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="BD3">
         <v>20</v>
@@ -2266,31 +2264,31 @@
         <v>1.5</v>
       </c>
       <c r="BF3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="BG3">
         <v>1.42</v>
       </c>
       <c r="BH3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="BI3">
         <v>1.42</v>
       </c>
       <c r="BJ3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="BK3">
         <v>1.42</v>
       </c>
       <c r="BL3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="BM3">
         <v>1.42</v>
       </c>
       <c r="BN3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="BO3">
         <v>1.42</v>
@@ -2305,22 +2303,22 @@
         <v>120</v>
       </c>
       <c r="BS3" t="s">
+        <v>141</v>
+      </c>
+      <c r="BT3" t="s">
         <v>142</v>
       </c>
-      <c r="BT3" t="s">
-        <v>143</v>
-      </c>
       <c r="BU3" t="s">
+        <v>136</v>
+      </c>
+      <c r="BV3" t="s">
         <v>137</v>
       </c>
-      <c r="BV3" t="s">
+      <c r="BW3" t="s">
         <v>138</v>
       </c>
-      <c r="BW3" t="s">
+      <c r="BX3" t="s">
         <v>139</v>
-      </c>
-      <c r="BX3" t="s">
-        <v>140</v>
       </c>
       <c r="BY3">
         <v>10</v>
@@ -2329,13 +2327,13 @@
         <v>1.5</v>
       </c>
       <c r="CA3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="CB3">
         <v>1.42</v>
       </c>
       <c r="CC3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="CD3">
         <v>1.42</v>
@@ -2371,22 +2369,22 @@
         <v>120</v>
       </c>
       <c r="CO3" t="s">
+        <v>141</v>
+      </c>
+      <c r="CP3" t="s">
         <v>142</v>
       </c>
-      <c r="CP3" t="s">
-        <v>143</v>
-      </c>
       <c r="CQ3" t="s">
+        <v>136</v>
+      </c>
+      <c r="CR3" t="s">
         <v>137</v>
       </c>
-      <c r="CR3" t="s">
+      <c r="CS3" t="s">
         <v>138</v>
       </c>
-      <c r="CS3" t="s">
+      <c r="CT3" t="s">
         <v>139</v>
-      </c>
-      <c r="CT3" t="s">
-        <v>140</v>
       </c>
       <c r="CU3">
         <v>10</v>
@@ -2395,19 +2393,19 @@
         <v>1.5</v>
       </c>
       <c r="CW3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="CX3">
         <v>1.42</v>
       </c>
       <c r="CY3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="CZ3">
         <v>1.42</v>
       </c>
       <c r="DA3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="DB3">
         <v>128</v>
@@ -2449,19 +2447,19 @@
         <v>120</v>
       </c>
       <c r="DO3" t="s">
+        <v>141</v>
+      </c>
+      <c r="DP3" t="s">
         <v>142</v>
       </c>
-      <c r="DP3" t="s">
-        <v>143</v>
-      </c>
       <c r="DQ3" t="s">
+        <v>144</v>
+      </c>
+      <c r="DR3" t="s">
         <v>145</v>
       </c>
-      <c r="DR3" t="s">
+      <c r="DS3" t="s">
         <v>146</v>
-      </c>
-      <c r="DS3" t="s">
-        <v>147</v>
       </c>
       <c r="DT3" t="b">
         <v>1</v>
@@ -2497,16 +2495,16 @@
         <v>1.5</v>
       </c>
       <c r="EE3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="EF3" t="s">
+        <v>144</v>
+      </c>
+      <c r="EG3" t="s">
         <v>145</v>
       </c>
-      <c r="EG3" t="s">
+      <c r="EH3" t="s">
         <v>146</v>
-      </c>
-      <c r="EH3" t="s">
-        <v>147</v>
       </c>
       <c r="EI3" t="b">
         <v>0</v>
@@ -2542,16 +2540,16 @@
         <v>1.5</v>
       </c>
       <c r="ET3" t="s">
+        <v>147</v>
+      </c>
+      <c r="EU3" t="s">
         <v>148</v>
       </c>
-      <c r="EU3" t="s">
+      <c r="EV3" t="s">
         <v>149</v>
       </c>
-      <c r="EV3" t="s">
+      <c r="EW3" t="s">
         <v>150</v>
-      </c>
-      <c r="EW3" t="s">
-        <v>151</v>
       </c>
       <c r="EX3">
         <v>9.9999999999999995E-7</v>
@@ -2566,13 +2564,13 @@
         <v>25</v>
       </c>
       <c r="FB3" t="s">
+        <v>148</v>
+      </c>
+      <c r="FC3" t="s">
         <v>149</v>
       </c>
-      <c r="FC3" t="s">
+      <c r="FD3" t="s">
         <v>150</v>
-      </c>
-      <c r="FD3" t="s">
-        <v>151</v>
       </c>
       <c r="FE3">
         <v>9.9999999999999995E-7</v>
@@ -2587,16 +2585,16 @@
         <v>25</v>
       </c>
       <c r="FI3" t="s">
+        <v>151</v>
+      </c>
+      <c r="FJ3" t="s">
+        <v>145</v>
+      </c>
+      <c r="FK3" t="s">
         <v>152</v>
       </c>
-      <c r="FJ3" t="s">
-        <v>146</v>
-      </c>
-      <c r="FK3" t="s">
+      <c r="FL3" t="s">
         <v>153</v>
-      </c>
-      <c r="FL3" t="s">
-        <v>154</v>
       </c>
       <c r="FM3">
         <v>200</v>
@@ -2623,7 +2621,7 @@
         <v>20</v>
       </c>
       <c r="FU3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="FV3">
         <v>532</v>
@@ -2644,19 +2642,19 @@
         <v>75</v>
       </c>
       <c r="GB3" t="s">
+        <v>155</v>
+      </c>
+      <c r="GC3" t="s">
         <v>156</v>
       </c>
-      <c r="GC3" t="s">
+      <c r="GD3" t="s">
+        <v>145</v>
+      </c>
+      <c r="GE3" t="s">
         <v>157</v>
       </c>
-      <c r="GD3" t="s">
-        <v>146</v>
-      </c>
-      <c r="GE3" t="s">
+      <c r="GF3" t="s">
         <v>158</v>
-      </c>
-      <c r="GF3" t="s">
-        <v>159</v>
       </c>
       <c r="GG3">
         <v>25</v>
@@ -2674,7 +2672,7 @@
         <v>250</v>
       </c>
       <c r="GL3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="GM3">
         <v>0.2</v>
@@ -2686,7 +2684,7 @@
         <v>25</v>
       </c>
       <c r="GP3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="GQ3">
         <v>0.1</v>
@@ -2701,19 +2699,19 @@
         <v>150</v>
       </c>
       <c r="GU3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="GV3">
         <v>35</v>
       </c>
       <c r="GW3" t="s">
+        <v>160</v>
+      </c>
+      <c r="GX3" t="s">
         <v>161</v>
       </c>
-      <c r="GX3" t="s">
+      <c r="GY3" t="s">
         <v>162</v>
-      </c>
-      <c r="GY3" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="4" spans="1:207" x14ac:dyDescent="0.3">
@@ -2739,8 +2737,9 @@
       <c r="G4" t="s">
         <v>130</v>
       </c>
-      <c r="H4" t="s">
-        <v>131</v>
+      <c r="H4">
+        <f t="shared" ref="H4:H18" si="1">2.5*2.5</f>
+        <v>6.25</v>
       </c>
       <c r="I4">
         <v>0.16</v>
@@ -2752,19 +2751,19 @@
         <v>0.16</v>
       </c>
       <c r="L4" t="s">
+        <v>131</v>
+      </c>
+      <c r="M4" t="s">
         <v>132</v>
-      </c>
-      <c r="M4" t="s">
-        <v>133</v>
       </c>
       <c r="N4">
         <v>1</v>
       </c>
       <c r="O4" t="s">
+        <v>133</v>
+      </c>
+      <c r="P4" t="s">
         <v>134</v>
-      </c>
-      <c r="P4" t="s">
-        <v>135</v>
       </c>
       <c r="Q4">
         <v>31</v>
@@ -2773,7 +2772,7 @@
         <v>61</v>
       </c>
       <c r="S4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="T4">
         <v>32</v>
@@ -2782,7 +2781,7 @@
         <v>62</v>
       </c>
       <c r="V4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="W4">
         <v>180</v>
@@ -2791,7 +2790,7 @@
         <v>50</v>
       </c>
       <c r="Y4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="Z4">
         <v>31</v>
@@ -2800,7 +2799,7 @@
         <v>61</v>
       </c>
       <c r="AB4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AC4">
         <v>32</v>
@@ -2812,16 +2811,16 @@
         <v>900</v>
       </c>
       <c r="AF4" t="s">
+        <v>136</v>
+      </c>
+      <c r="AG4" t="s">
         <v>137</v>
       </c>
-      <c r="AG4" t="s">
+      <c r="AH4" t="s">
         <v>138</v>
       </c>
-      <c r="AH4" t="s">
+      <c r="AI4" t="s">
         <v>139</v>
-      </c>
-      <c r="AI4" t="s">
-        <v>140</v>
       </c>
       <c r="AJ4">
         <v>10</v>
@@ -2830,7 +2829,7 @@
         <v>1.5</v>
       </c>
       <c r="AL4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AM4">
         <v>1.42</v>
@@ -2857,22 +2856,22 @@
         <v>120</v>
       </c>
       <c r="AU4" t="s">
+        <v>141</v>
+      </c>
+      <c r="AV4" t="s">
         <v>142</v>
       </c>
-      <c r="AV4" t="s">
-        <v>143</v>
-      </c>
       <c r="AW4" t="s">
+        <v>136</v>
+      </c>
+      <c r="AX4" t="s">
         <v>137</v>
       </c>
-      <c r="AX4" t="s">
+      <c r="AY4" t="s">
         <v>138</v>
       </c>
-      <c r="AY4" t="s">
+      <c r="AZ4" t="s">
         <v>139</v>
-      </c>
-      <c r="AZ4" t="s">
-        <v>140</v>
       </c>
       <c r="BA4">
         <v>10</v>
@@ -2881,7 +2880,7 @@
         <v>1.5</v>
       </c>
       <c r="BC4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="BD4">
         <v>20</v>
@@ -2890,31 +2889,31 @@
         <v>1.5</v>
       </c>
       <c r="BF4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="BG4">
         <v>1.42</v>
       </c>
       <c r="BH4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="BI4">
         <v>1.42</v>
       </c>
       <c r="BJ4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="BK4">
         <v>1.42</v>
       </c>
       <c r="BL4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="BM4">
         <v>1.42</v>
       </c>
       <c r="BN4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="BO4">
         <v>1.42</v>
@@ -2929,22 +2928,22 @@
         <v>120</v>
       </c>
       <c r="BS4" t="s">
+        <v>141</v>
+      </c>
+      <c r="BT4" t="s">
         <v>142</v>
       </c>
-      <c r="BT4" t="s">
-        <v>143</v>
-      </c>
       <c r="BU4" t="s">
+        <v>136</v>
+      </c>
+      <c r="BV4" t="s">
         <v>137</v>
       </c>
-      <c r="BV4" t="s">
+      <c r="BW4" t="s">
         <v>138</v>
       </c>
-      <c r="BW4" t="s">
+      <c r="BX4" t="s">
         <v>139</v>
-      </c>
-      <c r="BX4" t="s">
-        <v>140</v>
       </c>
       <c r="BY4">
         <v>10</v>
@@ -2953,13 +2952,13 @@
         <v>1.5</v>
       </c>
       <c r="CA4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="CB4">
         <v>1.42</v>
       </c>
       <c r="CC4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="CD4">
         <v>1.42</v>
@@ -2995,22 +2994,22 @@
         <v>120</v>
       </c>
       <c r="CO4" t="s">
+        <v>141</v>
+      </c>
+      <c r="CP4" t="s">
         <v>142</v>
       </c>
-      <c r="CP4" t="s">
-        <v>143</v>
-      </c>
       <c r="CQ4" t="s">
+        <v>136</v>
+      </c>
+      <c r="CR4" t="s">
         <v>137</v>
       </c>
-      <c r="CR4" t="s">
+      <c r="CS4" t="s">
         <v>138</v>
       </c>
-      <c r="CS4" t="s">
+      <c r="CT4" t="s">
         <v>139</v>
-      </c>
-      <c r="CT4" t="s">
-        <v>140</v>
       </c>
       <c r="CU4">
         <v>10</v>
@@ -3019,19 +3018,19 @@
         <v>1.5</v>
       </c>
       <c r="CW4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="CX4">
         <v>1.42</v>
       </c>
       <c r="CY4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="CZ4">
         <v>1.42</v>
       </c>
       <c r="DA4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="DB4">
         <v>128</v>
@@ -3073,19 +3072,19 @@
         <v>120</v>
       </c>
       <c r="DO4" t="s">
+        <v>141</v>
+      </c>
+      <c r="DP4" t="s">
         <v>142</v>
       </c>
-      <c r="DP4" t="s">
-        <v>143</v>
-      </c>
       <c r="DQ4" t="s">
+        <v>144</v>
+      </c>
+      <c r="DR4" t="s">
         <v>145</v>
       </c>
-      <c r="DR4" t="s">
+      <c r="DS4" t="s">
         <v>146</v>
-      </c>
-      <c r="DS4" t="s">
-        <v>147</v>
       </c>
       <c r="DT4" t="b">
         <v>1</v>
@@ -3121,16 +3120,16 @@
         <v>1.5</v>
       </c>
       <c r="EE4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="EF4" t="s">
+        <v>144</v>
+      </c>
+      <c r="EG4" t="s">
         <v>145</v>
       </c>
-      <c r="EG4" t="s">
+      <c r="EH4" t="s">
         <v>146</v>
-      </c>
-      <c r="EH4" t="s">
-        <v>147</v>
       </c>
       <c r="EI4" t="b">
         <v>0</v>
@@ -3166,16 +3165,16 @@
         <v>1.5</v>
       </c>
       <c r="ET4" t="s">
+        <v>147</v>
+      </c>
+      <c r="EU4" t="s">
         <v>148</v>
       </c>
-      <c r="EU4" t="s">
+      <c r="EV4" t="s">
         <v>149</v>
       </c>
-      <c r="EV4" t="s">
+      <c r="EW4" t="s">
         <v>150</v>
-      </c>
-      <c r="EW4" t="s">
-        <v>151</v>
       </c>
       <c r="EX4">
         <v>9.9999999999999995E-7</v>
@@ -3190,13 +3189,13 @@
         <v>25</v>
       </c>
       <c r="FB4" t="s">
+        <v>148</v>
+      </c>
+      <c r="FC4" t="s">
         <v>149</v>
       </c>
-      <c r="FC4" t="s">
+      <c r="FD4" t="s">
         <v>150</v>
-      </c>
-      <c r="FD4" t="s">
-        <v>151</v>
       </c>
       <c r="FE4">
         <v>9.9999999999999995E-7</v>
@@ -3211,16 +3210,16 @@
         <v>25</v>
       </c>
       <c r="FI4" t="s">
+        <v>151</v>
+      </c>
+      <c r="FJ4" t="s">
+        <v>145</v>
+      </c>
+      <c r="FK4" t="s">
         <v>152</v>
       </c>
-      <c r="FJ4" t="s">
-        <v>146</v>
-      </c>
-      <c r="FK4" t="s">
+      <c r="FL4" t="s">
         <v>153</v>
-      </c>
-      <c r="FL4" t="s">
-        <v>154</v>
       </c>
       <c r="FM4">
         <v>200</v>
@@ -3247,7 +3246,7 @@
         <v>20</v>
       </c>
       <c r="FU4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="FV4">
         <v>532</v>
@@ -3268,19 +3267,19 @@
         <v>75</v>
       </c>
       <c r="GB4" t="s">
+        <v>155</v>
+      </c>
+      <c r="GC4" t="s">
         <v>156</v>
       </c>
-      <c r="GC4" t="s">
+      <c r="GD4" t="s">
+        <v>145</v>
+      </c>
+      <c r="GE4" t="s">
         <v>157</v>
       </c>
-      <c r="GD4" t="s">
-        <v>146</v>
-      </c>
-      <c r="GE4" t="s">
+      <c r="GF4" t="s">
         <v>158</v>
-      </c>
-      <c r="GF4" t="s">
-        <v>159</v>
       </c>
       <c r="GG4">
         <v>25</v>
@@ -3298,7 +3297,7 @@
         <v>250</v>
       </c>
       <c r="GL4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="GM4">
         <v>0.2</v>
@@ -3310,7 +3309,7 @@
         <v>25</v>
       </c>
       <c r="GP4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="GQ4">
         <v>0.1</v>
@@ -3325,19 +3324,19 @@
         <v>150</v>
       </c>
       <c r="GU4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="GV4">
         <v>35</v>
       </c>
       <c r="GW4" t="s">
+        <v>160</v>
+      </c>
+      <c r="GX4" t="s">
         <v>161</v>
       </c>
-      <c r="GX4" t="s">
+      <c r="GY4" t="s">
         <v>162</v>
-      </c>
-      <c r="GY4" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="5" spans="1:207" x14ac:dyDescent="0.3">
@@ -3363,8 +3362,9 @@
       <c r="G5" t="s">
         <v>130</v>
       </c>
-      <c r="H5" t="s">
-        <v>131</v>
+      <c r="H5">
+        <f t="shared" si="1"/>
+        <v>6.25</v>
       </c>
       <c r="I5">
         <v>0.16</v>
@@ -3376,19 +3376,19 @@
         <v>0.16</v>
       </c>
       <c r="L5" t="s">
+        <v>131</v>
+      </c>
+      <c r="M5" t="s">
         <v>132</v>
-      </c>
-      <c r="M5" t="s">
-        <v>133</v>
       </c>
       <c r="N5">
         <v>1</v>
       </c>
       <c r="O5" t="s">
+        <v>133</v>
+      </c>
+      <c r="P5" t="s">
         <v>134</v>
-      </c>
-      <c r="P5" t="s">
-        <v>135</v>
       </c>
       <c r="Q5">
         <v>31</v>
@@ -3397,7 +3397,7 @@
         <v>61</v>
       </c>
       <c r="S5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="T5">
         <v>32</v>
@@ -3406,7 +3406,7 @@
         <v>62</v>
       </c>
       <c r="V5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="W5">
         <v>180</v>
@@ -3415,7 +3415,7 @@
         <v>50</v>
       </c>
       <c r="Y5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="Z5">
         <v>31</v>
@@ -3424,7 +3424,7 @@
         <v>61</v>
       </c>
       <c r="AB5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AC5">
         <v>32</v>
@@ -3436,16 +3436,16 @@
         <v>900</v>
       </c>
       <c r="AF5" t="s">
+        <v>136</v>
+      </c>
+      <c r="AG5" t="s">
         <v>137</v>
       </c>
-      <c r="AG5" t="s">
+      <c r="AH5" t="s">
         <v>138</v>
       </c>
-      <c r="AH5" t="s">
+      <c r="AI5" t="s">
         <v>139</v>
-      </c>
-      <c r="AI5" t="s">
-        <v>140</v>
       </c>
       <c r="AJ5">
         <v>10</v>
@@ -3454,7 +3454,7 @@
         <v>1.5</v>
       </c>
       <c r="AL5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AM5">
         <v>1.42</v>
@@ -3481,22 +3481,22 @@
         <v>120</v>
       </c>
       <c r="AU5" t="s">
+        <v>141</v>
+      </c>
+      <c r="AV5" t="s">
         <v>142</v>
       </c>
-      <c r="AV5" t="s">
-        <v>143</v>
-      </c>
       <c r="AW5" t="s">
+        <v>136</v>
+      </c>
+      <c r="AX5" t="s">
         <v>137</v>
       </c>
-      <c r="AX5" t="s">
+      <c r="AY5" t="s">
         <v>138</v>
       </c>
-      <c r="AY5" t="s">
+      <c r="AZ5" t="s">
         <v>139</v>
-      </c>
-      <c r="AZ5" t="s">
-        <v>140</v>
       </c>
       <c r="BA5">
         <v>10</v>
@@ -3505,7 +3505,7 @@
         <v>1.5</v>
       </c>
       <c r="BC5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="BD5">
         <v>20</v>
@@ -3514,31 +3514,31 @@
         <v>1.5</v>
       </c>
       <c r="BF5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="BG5">
         <v>1.42</v>
       </c>
       <c r="BH5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="BI5">
         <v>1.42</v>
       </c>
       <c r="BJ5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="BK5">
         <v>1.42</v>
       </c>
       <c r="BL5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="BM5">
         <v>1.42</v>
       </c>
       <c r="BN5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="BO5">
         <v>1.42</v>
@@ -3553,22 +3553,22 @@
         <v>120</v>
       </c>
       <c r="BS5" t="s">
+        <v>141</v>
+      </c>
+      <c r="BT5" t="s">
         <v>142</v>
       </c>
-      <c r="BT5" t="s">
-        <v>143</v>
-      </c>
       <c r="BU5" t="s">
+        <v>136</v>
+      </c>
+      <c r="BV5" t="s">
         <v>137</v>
       </c>
-      <c r="BV5" t="s">
+      <c r="BW5" t="s">
         <v>138</v>
       </c>
-      <c r="BW5" t="s">
+      <c r="BX5" t="s">
         <v>139</v>
-      </c>
-      <c r="BX5" t="s">
-        <v>140</v>
       </c>
       <c r="BY5">
         <v>10</v>
@@ -3577,13 +3577,13 @@
         <v>1.5</v>
       </c>
       <c r="CA5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="CB5">
         <v>1.42</v>
       </c>
       <c r="CC5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="CD5">
         <v>1.42</v>
@@ -3619,22 +3619,22 @@
         <v>120</v>
       </c>
       <c r="CO5" t="s">
+        <v>141</v>
+      </c>
+      <c r="CP5" t="s">
         <v>142</v>
       </c>
-      <c r="CP5" t="s">
-        <v>143</v>
-      </c>
       <c r="CQ5" t="s">
+        <v>136</v>
+      </c>
+      <c r="CR5" t="s">
         <v>137</v>
       </c>
-      <c r="CR5" t="s">
+      <c r="CS5" t="s">
         <v>138</v>
       </c>
-      <c r="CS5" t="s">
+      <c r="CT5" t="s">
         <v>139</v>
-      </c>
-      <c r="CT5" t="s">
-        <v>140</v>
       </c>
       <c r="CU5">
         <v>10</v>
@@ -3643,19 +3643,19 @@
         <v>1.5</v>
       </c>
       <c r="CW5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="CX5">
         <v>1.42</v>
       </c>
       <c r="CY5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="CZ5">
         <v>1.42</v>
       </c>
       <c r="DA5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="DB5">
         <v>128</v>
@@ -3697,19 +3697,19 @@
         <v>120</v>
       </c>
       <c r="DO5" t="s">
+        <v>141</v>
+      </c>
+      <c r="DP5" t="s">
         <v>142</v>
       </c>
-      <c r="DP5" t="s">
-        <v>143</v>
-      </c>
       <c r="DQ5" t="s">
+        <v>144</v>
+      </c>
+      <c r="DR5" t="s">
         <v>145</v>
       </c>
-      <c r="DR5" t="s">
+      <c r="DS5" t="s">
         <v>146</v>
-      </c>
-      <c r="DS5" t="s">
-        <v>147</v>
       </c>
       <c r="DT5" t="b">
         <v>1</v>
@@ -3745,16 +3745,16 @@
         <v>1.5</v>
       </c>
       <c r="EE5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="EF5" t="s">
+        <v>144</v>
+      </c>
+      <c r="EG5" t="s">
         <v>145</v>
       </c>
-      <c r="EG5" t="s">
+      <c r="EH5" t="s">
         <v>146</v>
-      </c>
-      <c r="EH5" t="s">
-        <v>147</v>
       </c>
       <c r="EI5" t="b">
         <v>0</v>
@@ -3790,16 +3790,16 @@
         <v>1.5</v>
       </c>
       <c r="ET5" t="s">
+        <v>147</v>
+      </c>
+      <c r="EU5" t="s">
         <v>148</v>
       </c>
-      <c r="EU5" t="s">
+      <c r="EV5" t="s">
         <v>149</v>
       </c>
-      <c r="EV5" t="s">
+      <c r="EW5" t="s">
         <v>150</v>
-      </c>
-      <c r="EW5" t="s">
-        <v>151</v>
       </c>
       <c r="EX5">
         <v>9.9999999999999995E-7</v>
@@ -3814,13 +3814,13 @@
         <v>25</v>
       </c>
       <c r="FB5" t="s">
+        <v>148</v>
+      </c>
+      <c r="FC5" t="s">
         <v>149</v>
       </c>
-      <c r="FC5" t="s">
+      <c r="FD5" t="s">
         <v>150</v>
-      </c>
-      <c r="FD5" t="s">
-        <v>151</v>
       </c>
       <c r="FE5">
         <v>9.9999999999999995E-7</v>
@@ -3835,16 +3835,16 @@
         <v>25</v>
       </c>
       <c r="FI5" t="s">
+        <v>151</v>
+      </c>
+      <c r="FJ5" t="s">
+        <v>145</v>
+      </c>
+      <c r="FK5" t="s">
         <v>152</v>
       </c>
-      <c r="FJ5" t="s">
-        <v>146</v>
-      </c>
-      <c r="FK5" t="s">
+      <c r="FL5" t="s">
         <v>153</v>
-      </c>
-      <c r="FL5" t="s">
-        <v>154</v>
       </c>
       <c r="FM5">
         <v>200</v>
@@ -3871,7 +3871,7 @@
         <v>20</v>
       </c>
       <c r="FU5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="FV5">
         <v>532</v>
@@ -3892,19 +3892,19 @@
         <v>75</v>
       </c>
       <c r="GB5" t="s">
+        <v>155</v>
+      </c>
+      <c r="GC5" t="s">
         <v>156</v>
       </c>
-      <c r="GC5" t="s">
+      <c r="GD5" t="s">
+        <v>145</v>
+      </c>
+      <c r="GE5" t="s">
         <v>157</v>
       </c>
-      <c r="GD5" t="s">
-        <v>146</v>
-      </c>
-      <c r="GE5" t="s">
+      <c r="GF5" t="s">
         <v>158</v>
-      </c>
-      <c r="GF5" t="s">
-        <v>159</v>
       </c>
       <c r="GG5">
         <v>25</v>
@@ -3922,7 +3922,7 @@
         <v>250</v>
       </c>
       <c r="GL5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="GM5">
         <v>0.2</v>
@@ -3934,7 +3934,7 @@
         <v>25</v>
       </c>
       <c r="GP5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="GQ5">
         <v>0.1</v>
@@ -3949,19 +3949,19 @@
         <v>150</v>
       </c>
       <c r="GU5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="GV5">
         <v>35</v>
       </c>
       <c r="GW5" t="s">
+        <v>160</v>
+      </c>
+      <c r="GX5" t="s">
         <v>161</v>
       </c>
-      <c r="GX5" t="s">
+      <c r="GY5" t="s">
         <v>162</v>
-      </c>
-      <c r="GY5" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="6" spans="1:207" x14ac:dyDescent="0.3">
@@ -3987,8 +3987,9 @@
       <c r="G6" t="s">
         <v>130</v>
       </c>
-      <c r="H6" t="s">
-        <v>131</v>
+      <c r="H6">
+        <f t="shared" si="1"/>
+        <v>6.25</v>
       </c>
       <c r="I6">
         <v>0.16</v>
@@ -4000,19 +4001,19 @@
         <v>0.16</v>
       </c>
       <c r="L6" t="s">
+        <v>131</v>
+      </c>
+      <c r="M6" t="s">
         <v>132</v>
-      </c>
-      <c r="M6" t="s">
-        <v>133</v>
       </c>
       <c r="N6">
         <v>1</v>
       </c>
       <c r="O6" t="s">
+        <v>133</v>
+      </c>
+      <c r="P6" t="s">
         <v>134</v>
-      </c>
-      <c r="P6" t="s">
-        <v>135</v>
       </c>
       <c r="Q6">
         <v>31</v>
@@ -4021,7 +4022,7 @@
         <v>61</v>
       </c>
       <c r="S6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="T6">
         <v>32</v>
@@ -4030,7 +4031,7 @@
         <v>62</v>
       </c>
       <c r="V6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="W6">
         <v>180</v>
@@ -4039,7 +4040,7 @@
         <v>50</v>
       </c>
       <c r="Y6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="Z6">
         <v>31</v>
@@ -4048,7 +4049,7 @@
         <v>61</v>
       </c>
       <c r="AB6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AC6">
         <v>32</v>
@@ -4060,16 +4061,16 @@
         <v>900</v>
       </c>
       <c r="AF6" t="s">
+        <v>136</v>
+      </c>
+      <c r="AG6" t="s">
         <v>137</v>
       </c>
-      <c r="AG6" t="s">
+      <c r="AH6" t="s">
         <v>138</v>
       </c>
-      <c r="AH6" t="s">
+      <c r="AI6" t="s">
         <v>139</v>
-      </c>
-      <c r="AI6" t="s">
-        <v>140</v>
       </c>
       <c r="AJ6">
         <v>10</v>
@@ -4078,7 +4079,7 @@
         <v>1.5</v>
       </c>
       <c r="AL6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AM6">
         <v>1.42</v>
@@ -4105,22 +4106,22 @@
         <v>120</v>
       </c>
       <c r="AU6" t="s">
+        <v>141</v>
+      </c>
+      <c r="AV6" t="s">
         <v>142</v>
       </c>
-      <c r="AV6" t="s">
-        <v>143</v>
-      </c>
       <c r="AW6" t="s">
+        <v>136</v>
+      </c>
+      <c r="AX6" t="s">
         <v>137</v>
       </c>
-      <c r="AX6" t="s">
+      <c r="AY6" t="s">
         <v>138</v>
       </c>
-      <c r="AY6" t="s">
+      <c r="AZ6" t="s">
         <v>139</v>
-      </c>
-      <c r="AZ6" t="s">
-        <v>140</v>
       </c>
       <c r="BA6">
         <v>10</v>
@@ -4129,7 +4130,7 @@
         <v>1.5</v>
       </c>
       <c r="BC6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="BD6">
         <v>20</v>
@@ -4138,31 +4139,31 @@
         <v>1.5</v>
       </c>
       <c r="BF6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="BG6">
         <v>1.42</v>
       </c>
       <c r="BH6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="BI6">
         <v>1.42</v>
       </c>
       <c r="BJ6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="BK6">
         <v>1.42</v>
       </c>
       <c r="BL6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="BM6">
         <v>1.42</v>
       </c>
       <c r="BN6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="BO6">
         <v>1.42</v>
@@ -4177,22 +4178,22 @@
         <v>120</v>
       </c>
       <c r="BS6" t="s">
+        <v>141</v>
+      </c>
+      <c r="BT6" t="s">
         <v>142</v>
       </c>
-      <c r="BT6" t="s">
-        <v>143</v>
-      </c>
       <c r="BU6" t="s">
+        <v>136</v>
+      </c>
+      <c r="BV6" t="s">
         <v>137</v>
       </c>
-      <c r="BV6" t="s">
+      <c r="BW6" t="s">
         <v>138</v>
       </c>
-      <c r="BW6" t="s">
+      <c r="BX6" t="s">
         <v>139</v>
-      </c>
-      <c r="BX6" t="s">
-        <v>140</v>
       </c>
       <c r="BY6">
         <v>10</v>
@@ -4201,13 +4202,13 @@
         <v>1.5</v>
       </c>
       <c r="CA6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="CB6">
         <v>1.42</v>
       </c>
       <c r="CC6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="CD6">
         <v>1.42</v>
@@ -4243,22 +4244,22 @@
         <v>120</v>
       </c>
       <c r="CO6" t="s">
+        <v>141</v>
+      </c>
+      <c r="CP6" t="s">
         <v>142</v>
       </c>
-      <c r="CP6" t="s">
-        <v>143</v>
-      </c>
       <c r="CQ6" t="s">
+        <v>136</v>
+      </c>
+      <c r="CR6" t="s">
         <v>137</v>
       </c>
-      <c r="CR6" t="s">
+      <c r="CS6" t="s">
         <v>138</v>
       </c>
-      <c r="CS6" t="s">
+      <c r="CT6" t="s">
         <v>139</v>
-      </c>
-      <c r="CT6" t="s">
-        <v>140</v>
       </c>
       <c r="CU6">
         <v>10</v>
@@ -4267,19 +4268,19 @@
         <v>1.5</v>
       </c>
       <c r="CW6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="CX6">
         <v>1.42</v>
       </c>
       <c r="CY6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="CZ6">
         <v>1.42</v>
       </c>
       <c r="DA6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="DB6">
         <v>128</v>
@@ -4321,19 +4322,19 @@
         <v>120</v>
       </c>
       <c r="DO6" t="s">
+        <v>141</v>
+      </c>
+      <c r="DP6" t="s">
         <v>142</v>
       </c>
-      <c r="DP6" t="s">
-        <v>143</v>
-      </c>
       <c r="DQ6" t="s">
+        <v>144</v>
+      </c>
+      <c r="DR6" t="s">
         <v>145</v>
       </c>
-      <c r="DR6" t="s">
+      <c r="DS6" t="s">
         <v>146</v>
-      </c>
-      <c r="DS6" t="s">
-        <v>147</v>
       </c>
       <c r="DT6" t="b">
         <v>1</v>
@@ -4369,16 +4370,16 @@
         <v>1.5</v>
       </c>
       <c r="EE6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="EF6" t="s">
+        <v>144</v>
+      </c>
+      <c r="EG6" t="s">
         <v>145</v>
       </c>
-      <c r="EG6" t="s">
+      <c r="EH6" t="s">
         <v>146</v>
-      </c>
-      <c r="EH6" t="s">
-        <v>147</v>
       </c>
       <c r="EI6" t="b">
         <v>0</v>
@@ -4414,16 +4415,16 @@
         <v>1.5</v>
       </c>
       <c r="ET6" t="s">
+        <v>147</v>
+      </c>
+      <c r="EU6" t="s">
         <v>148</v>
       </c>
-      <c r="EU6" t="s">
+      <c r="EV6" t="s">
         <v>149</v>
       </c>
-      <c r="EV6" t="s">
+      <c r="EW6" t="s">
         <v>150</v>
-      </c>
-      <c r="EW6" t="s">
-        <v>151</v>
       </c>
       <c r="EX6">
         <v>9.9999999999999995E-7</v>
@@ -4438,13 +4439,13 @@
         <v>25</v>
       </c>
       <c r="FB6" t="s">
+        <v>148</v>
+      </c>
+      <c r="FC6" t="s">
         <v>149</v>
       </c>
-      <c r="FC6" t="s">
+      <c r="FD6" t="s">
         <v>150</v>
-      </c>
-      <c r="FD6" t="s">
-        <v>151</v>
       </c>
       <c r="FE6">
         <v>9.9999999999999995E-7</v>
@@ -4459,16 +4460,16 @@
         <v>25</v>
       </c>
       <c r="FI6" t="s">
+        <v>151</v>
+      </c>
+      <c r="FJ6" t="s">
+        <v>145</v>
+      </c>
+      <c r="FK6" t="s">
         <v>152</v>
       </c>
-      <c r="FJ6" t="s">
-        <v>146</v>
-      </c>
-      <c r="FK6" t="s">
+      <c r="FL6" t="s">
         <v>153</v>
-      </c>
-      <c r="FL6" t="s">
-        <v>154</v>
       </c>
       <c r="FM6">
         <v>200</v>
@@ -4495,7 +4496,7 @@
         <v>20</v>
       </c>
       <c r="FU6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="FV6">
         <v>532</v>
@@ -4516,19 +4517,19 @@
         <v>75</v>
       </c>
       <c r="GB6" t="s">
+        <v>155</v>
+      </c>
+      <c r="GC6" t="s">
         <v>156</v>
       </c>
-      <c r="GC6" t="s">
+      <c r="GD6" t="s">
+        <v>145</v>
+      </c>
+      <c r="GE6" t="s">
         <v>157</v>
       </c>
-      <c r="GD6" t="s">
-        <v>146</v>
-      </c>
-      <c r="GE6" t="s">
+      <c r="GF6" t="s">
         <v>158</v>
-      </c>
-      <c r="GF6" t="s">
-        <v>159</v>
       </c>
       <c r="GG6">
         <v>25</v>
@@ -4546,7 +4547,7 @@
         <v>250</v>
       </c>
       <c r="GL6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="GM6">
         <v>0.2</v>
@@ -4558,7 +4559,7 @@
         <v>25</v>
       </c>
       <c r="GP6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="GQ6">
         <v>0.1</v>
@@ -4573,19 +4574,19 @@
         <v>150</v>
       </c>
       <c r="GU6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="GV6">
         <v>35</v>
       </c>
       <c r="GW6" t="s">
+        <v>160</v>
+      </c>
+      <c r="GX6" t="s">
         <v>161</v>
       </c>
-      <c r="GX6" t="s">
+      <c r="GY6" t="s">
         <v>162</v>
-      </c>
-      <c r="GY6" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="7" spans="1:207" x14ac:dyDescent="0.3">
@@ -4611,8 +4612,9 @@
       <c r="G7" t="s">
         <v>130</v>
       </c>
-      <c r="H7" t="s">
-        <v>131</v>
+      <c r="H7">
+        <f t="shared" si="1"/>
+        <v>6.25</v>
       </c>
       <c r="I7">
         <v>0.16</v>
@@ -4624,19 +4626,19 @@
         <v>0.16</v>
       </c>
       <c r="L7" t="s">
+        <v>131</v>
+      </c>
+      <c r="M7" t="s">
         <v>132</v>
-      </c>
-      <c r="M7" t="s">
-        <v>133</v>
       </c>
       <c r="N7">
         <v>1</v>
       </c>
       <c r="O7" t="s">
+        <v>133</v>
+      </c>
+      <c r="P7" t="s">
         <v>134</v>
-      </c>
-      <c r="P7" t="s">
-        <v>135</v>
       </c>
       <c r="Q7">
         <v>31</v>
@@ -4645,7 +4647,7 @@
         <v>61</v>
       </c>
       <c r="S7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="T7">
         <v>32</v>
@@ -4654,7 +4656,7 @@
         <v>62</v>
       </c>
       <c r="V7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="W7">
         <v>180</v>
@@ -4663,7 +4665,7 @@
         <v>50</v>
       </c>
       <c r="Y7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="Z7">
         <v>31</v>
@@ -4672,7 +4674,7 @@
         <v>61</v>
       </c>
       <c r="AB7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AC7">
         <v>32</v>
@@ -4684,16 +4686,16 @@
         <v>900</v>
       </c>
       <c r="AF7" t="s">
+        <v>136</v>
+      </c>
+      <c r="AG7" t="s">
         <v>137</v>
       </c>
-      <c r="AG7" t="s">
+      <c r="AH7" t="s">
         <v>138</v>
       </c>
-      <c r="AH7" t="s">
+      <c r="AI7" t="s">
         <v>139</v>
-      </c>
-      <c r="AI7" t="s">
-        <v>140</v>
       </c>
       <c r="AJ7">
         <v>10</v>
@@ -4702,7 +4704,7 @@
         <v>1.5</v>
       </c>
       <c r="AL7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AM7">
         <v>1.42</v>
@@ -4729,22 +4731,22 @@
         <v>120</v>
       </c>
       <c r="AU7" t="s">
+        <v>141</v>
+      </c>
+      <c r="AV7" t="s">
         <v>142</v>
       </c>
-      <c r="AV7" t="s">
-        <v>143</v>
-      </c>
       <c r="AW7" t="s">
+        <v>136</v>
+      </c>
+      <c r="AX7" t="s">
         <v>137</v>
       </c>
-      <c r="AX7" t="s">
+      <c r="AY7" t="s">
         <v>138</v>
       </c>
-      <c r="AY7" t="s">
+      <c r="AZ7" t="s">
         <v>139</v>
-      </c>
-      <c r="AZ7" t="s">
-        <v>140</v>
       </c>
       <c r="BA7">
         <v>10</v>
@@ -4753,7 +4755,7 @@
         <v>1.5</v>
       </c>
       <c r="BC7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="BD7">
         <v>20</v>
@@ -4762,31 +4764,31 @@
         <v>1.5</v>
       </c>
       <c r="BF7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="BG7">
         <v>1.42</v>
       </c>
       <c r="BH7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="BI7">
         <v>1.42</v>
       </c>
       <c r="BJ7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="BK7">
         <v>1.42</v>
       </c>
       <c r="BL7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="BM7">
         <v>1.42</v>
       </c>
       <c r="BN7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="BO7">
         <v>1.42</v>
@@ -4801,22 +4803,22 @@
         <v>120</v>
       </c>
       <c r="BS7" t="s">
+        <v>141</v>
+      </c>
+      <c r="BT7" t="s">
         <v>142</v>
       </c>
-      <c r="BT7" t="s">
-        <v>143</v>
-      </c>
       <c r="BU7" t="s">
+        <v>136</v>
+      </c>
+      <c r="BV7" t="s">
         <v>137</v>
       </c>
-      <c r="BV7" t="s">
+      <c r="BW7" t="s">
         <v>138</v>
       </c>
-      <c r="BW7" t="s">
+      <c r="BX7" t="s">
         <v>139</v>
-      </c>
-      <c r="BX7" t="s">
-        <v>140</v>
       </c>
       <c r="BY7">
         <v>10</v>
@@ -4825,13 +4827,13 @@
         <v>1.5</v>
       </c>
       <c r="CA7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="CB7">
         <v>1.42</v>
       </c>
       <c r="CC7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="CD7">
         <v>1.42</v>
@@ -4867,22 +4869,22 @@
         <v>120</v>
       </c>
       <c r="CO7" t="s">
+        <v>141</v>
+      </c>
+      <c r="CP7" t="s">
         <v>142</v>
       </c>
-      <c r="CP7" t="s">
-        <v>143</v>
-      </c>
       <c r="CQ7" t="s">
+        <v>136</v>
+      </c>
+      <c r="CR7" t="s">
         <v>137</v>
       </c>
-      <c r="CR7" t="s">
+      <c r="CS7" t="s">
         <v>138</v>
       </c>
-      <c r="CS7" t="s">
+      <c r="CT7" t="s">
         <v>139</v>
-      </c>
-      <c r="CT7" t="s">
-        <v>140</v>
       </c>
       <c r="CU7">
         <v>10</v>
@@ -4891,19 +4893,19 @@
         <v>1.5</v>
       </c>
       <c r="CW7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="CX7">
         <v>1.42</v>
       </c>
       <c r="CY7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="CZ7">
         <v>1.42</v>
       </c>
       <c r="DA7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="DB7">
         <v>128</v>
@@ -4945,19 +4947,19 @@
         <v>120</v>
       </c>
       <c r="DO7" t="s">
+        <v>141</v>
+      </c>
+      <c r="DP7" t="s">
         <v>142</v>
       </c>
-      <c r="DP7" t="s">
-        <v>143</v>
-      </c>
       <c r="DQ7" t="s">
+        <v>144</v>
+      </c>
+      <c r="DR7" t="s">
         <v>145</v>
       </c>
-      <c r="DR7" t="s">
+      <c r="DS7" t="s">
         <v>146</v>
-      </c>
-      <c r="DS7" t="s">
-        <v>147</v>
       </c>
       <c r="DT7" t="b">
         <v>1</v>
@@ -4993,16 +4995,16 @@
         <v>1.5</v>
       </c>
       <c r="EE7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="EF7" t="s">
+        <v>144</v>
+      </c>
+      <c r="EG7" t="s">
         <v>145</v>
       </c>
-      <c r="EG7" t="s">
+      <c r="EH7" t="s">
         <v>146</v>
-      </c>
-      <c r="EH7" t="s">
-        <v>147</v>
       </c>
       <c r="EI7" t="b">
         <v>0</v>
@@ -5038,16 +5040,16 @@
         <v>1.5</v>
       </c>
       <c r="ET7" t="s">
+        <v>147</v>
+      </c>
+      <c r="EU7" t="s">
         <v>148</v>
       </c>
-      <c r="EU7" t="s">
+      <c r="EV7" t="s">
         <v>149</v>
       </c>
-      <c r="EV7" t="s">
+      <c r="EW7" t="s">
         <v>150</v>
-      </c>
-      <c r="EW7" t="s">
-        <v>151</v>
       </c>
       <c r="EX7">
         <v>9.9999999999999995E-7</v>
@@ -5062,13 +5064,13 @@
         <v>25</v>
       </c>
       <c r="FB7" t="s">
+        <v>148</v>
+      </c>
+      <c r="FC7" t="s">
         <v>149</v>
       </c>
-      <c r="FC7" t="s">
+      <c r="FD7" t="s">
         <v>150</v>
-      </c>
-      <c r="FD7" t="s">
-        <v>151</v>
       </c>
       <c r="FE7">
         <v>9.9999999999999995E-7</v>
@@ -5083,16 +5085,16 @@
         <v>25</v>
       </c>
       <c r="FI7" t="s">
+        <v>151</v>
+      </c>
+      <c r="FJ7" t="s">
+        <v>145</v>
+      </c>
+      <c r="FK7" t="s">
         <v>152</v>
       </c>
-      <c r="FJ7" t="s">
-        <v>146</v>
-      </c>
-      <c r="FK7" t="s">
+      <c r="FL7" t="s">
         <v>153</v>
-      </c>
-      <c r="FL7" t="s">
-        <v>154</v>
       </c>
       <c r="FM7">
         <v>200</v>
@@ -5119,7 +5121,7 @@
         <v>20</v>
       </c>
       <c r="FU7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="FV7">
         <v>532</v>
@@ -5140,19 +5142,19 @@
         <v>75</v>
       </c>
       <c r="GB7" t="s">
+        <v>155</v>
+      </c>
+      <c r="GC7" t="s">
         <v>156</v>
       </c>
-      <c r="GC7" t="s">
+      <c r="GD7" t="s">
+        <v>145</v>
+      </c>
+      <c r="GE7" t="s">
         <v>157</v>
       </c>
-      <c r="GD7" t="s">
-        <v>146</v>
-      </c>
-      <c r="GE7" t="s">
+      <c r="GF7" t="s">
         <v>158</v>
-      </c>
-      <c r="GF7" t="s">
-        <v>159</v>
       </c>
       <c r="GG7">
         <v>25</v>
@@ -5170,7 +5172,7 @@
         <v>250</v>
       </c>
       <c r="GL7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="GM7">
         <v>0.2</v>
@@ -5182,7 +5184,7 @@
         <v>25</v>
       </c>
       <c r="GP7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="GQ7">
         <v>0.1</v>
@@ -5197,19 +5199,19 @@
         <v>150</v>
       </c>
       <c r="GU7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="GV7">
         <v>35</v>
       </c>
       <c r="GW7" t="s">
+        <v>160</v>
+      </c>
+      <c r="GX7" t="s">
         <v>161</v>
       </c>
-      <c r="GX7" t="s">
+      <c r="GY7" t="s">
         <v>162</v>
-      </c>
-      <c r="GY7" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="8" spans="1:207" x14ac:dyDescent="0.3">
@@ -5235,8 +5237,9 @@
       <c r="G8" t="s">
         <v>130</v>
       </c>
-      <c r="H8" t="s">
-        <v>131</v>
+      <c r="H8">
+        <f t="shared" si="1"/>
+        <v>6.25</v>
       </c>
       <c r="I8">
         <v>0.16</v>
@@ -5248,19 +5251,19 @@
         <v>0.16</v>
       </c>
       <c r="L8" t="s">
+        <v>131</v>
+      </c>
+      <c r="M8" t="s">
         <v>132</v>
-      </c>
-      <c r="M8" t="s">
-        <v>133</v>
       </c>
       <c r="N8">
         <v>1</v>
       </c>
       <c r="O8" t="s">
+        <v>133</v>
+      </c>
+      <c r="P8" t="s">
         <v>134</v>
-      </c>
-      <c r="P8" t="s">
-        <v>135</v>
       </c>
       <c r="Q8">
         <v>31</v>
@@ -5269,7 +5272,7 @@
         <v>61</v>
       </c>
       <c r="S8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="T8">
         <v>32</v>
@@ -5278,7 +5281,7 @@
         <v>62</v>
       </c>
       <c r="V8" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="W8">
         <v>180</v>
@@ -5287,7 +5290,7 @@
         <v>50</v>
       </c>
       <c r="Y8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="Z8">
         <v>31</v>
@@ -5296,7 +5299,7 @@
         <v>61</v>
       </c>
       <c r="AB8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AC8">
         <v>32</v>
@@ -5308,16 +5311,16 @@
         <v>900</v>
       </c>
       <c r="AF8" t="s">
+        <v>136</v>
+      </c>
+      <c r="AG8" t="s">
         <v>137</v>
       </c>
-      <c r="AG8" t="s">
+      <c r="AH8" t="s">
         <v>138</v>
       </c>
-      <c r="AH8" t="s">
+      <c r="AI8" t="s">
         <v>139</v>
-      </c>
-      <c r="AI8" t="s">
-        <v>140</v>
       </c>
       <c r="AJ8">
         <v>10</v>
@@ -5326,7 +5329,7 @@
         <v>1.5</v>
       </c>
       <c r="AL8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AM8">
         <v>1.42</v>
@@ -5353,22 +5356,22 @@
         <v>120</v>
       </c>
       <c r="AU8" t="s">
+        <v>141</v>
+      </c>
+      <c r="AV8" t="s">
         <v>142</v>
       </c>
-      <c r="AV8" t="s">
-        <v>143</v>
-      </c>
       <c r="AW8" t="s">
+        <v>136</v>
+      </c>
+      <c r="AX8" t="s">
         <v>137</v>
       </c>
-      <c r="AX8" t="s">
+      <c r="AY8" t="s">
         <v>138</v>
       </c>
-      <c r="AY8" t="s">
+      <c r="AZ8" t="s">
         <v>139</v>
-      </c>
-      <c r="AZ8" t="s">
-        <v>140</v>
       </c>
       <c r="BA8">
         <v>10</v>
@@ -5377,7 +5380,7 @@
         <v>1.5</v>
       </c>
       <c r="BC8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="BD8">
         <v>20</v>
@@ -5386,31 +5389,31 @@
         <v>1.5</v>
       </c>
       <c r="BF8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="BG8">
         <v>1.42</v>
       </c>
       <c r="BH8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="BI8">
         <v>1.42</v>
       </c>
       <c r="BJ8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="BK8">
         <v>1.42</v>
       </c>
       <c r="BL8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="BM8">
         <v>1.42</v>
       </c>
       <c r="BN8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="BO8">
         <v>1.42</v>
@@ -5425,22 +5428,22 @@
         <v>120</v>
       </c>
       <c r="BS8" t="s">
+        <v>141</v>
+      </c>
+      <c r="BT8" t="s">
         <v>142</v>
       </c>
-      <c r="BT8" t="s">
-        <v>143</v>
-      </c>
       <c r="BU8" t="s">
+        <v>136</v>
+      </c>
+      <c r="BV8" t="s">
         <v>137</v>
       </c>
-      <c r="BV8" t="s">
+      <c r="BW8" t="s">
         <v>138</v>
       </c>
-      <c r="BW8" t="s">
+      <c r="BX8" t="s">
         <v>139</v>
-      </c>
-      <c r="BX8" t="s">
-        <v>140</v>
       </c>
       <c r="BY8">
         <v>10</v>
@@ -5449,13 +5452,13 @@
         <v>1.5</v>
       </c>
       <c r="CA8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="CB8">
         <v>1.42</v>
       </c>
       <c r="CC8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="CD8">
         <v>1.42</v>
@@ -5491,22 +5494,22 @@
         <v>120</v>
       </c>
       <c r="CO8" t="s">
+        <v>141</v>
+      </c>
+      <c r="CP8" t="s">
         <v>142</v>
       </c>
-      <c r="CP8" t="s">
-        <v>143</v>
-      </c>
       <c r="CQ8" t="s">
+        <v>136</v>
+      </c>
+      <c r="CR8" t="s">
         <v>137</v>
       </c>
-      <c r="CR8" t="s">
+      <c r="CS8" t="s">
         <v>138</v>
       </c>
-      <c r="CS8" t="s">
+      <c r="CT8" t="s">
         <v>139</v>
-      </c>
-      <c r="CT8" t="s">
-        <v>140</v>
       </c>
       <c r="CU8">
         <v>10</v>
@@ -5515,19 +5518,19 @@
         <v>1.5</v>
       </c>
       <c r="CW8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="CX8">
         <v>1.42</v>
       </c>
       <c r="CY8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="CZ8">
         <v>1.42</v>
       </c>
       <c r="DA8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="DB8">
         <v>128</v>
@@ -5569,19 +5572,19 @@
         <v>120</v>
       </c>
       <c r="DO8" t="s">
+        <v>141</v>
+      </c>
+      <c r="DP8" t="s">
         <v>142</v>
       </c>
-      <c r="DP8" t="s">
-        <v>143</v>
-      </c>
       <c r="DQ8" t="s">
+        <v>144</v>
+      </c>
+      <c r="DR8" t="s">
         <v>145</v>
       </c>
-      <c r="DR8" t="s">
+      <c r="DS8" t="s">
         <v>146</v>
-      </c>
-      <c r="DS8" t="s">
-        <v>147</v>
       </c>
       <c r="DT8" t="b">
         <v>1</v>
@@ -5617,16 +5620,16 @@
         <v>1.5</v>
       </c>
       <c r="EE8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="EF8" t="s">
+        <v>144</v>
+      </c>
+      <c r="EG8" t="s">
         <v>145</v>
       </c>
-      <c r="EG8" t="s">
+      <c r="EH8" t="s">
         <v>146</v>
-      </c>
-      <c r="EH8" t="s">
-        <v>147</v>
       </c>
       <c r="EI8" t="b">
         <v>0</v>
@@ -5662,16 +5665,16 @@
         <v>1.5</v>
       </c>
       <c r="ET8" t="s">
+        <v>147</v>
+      </c>
+      <c r="EU8" t="s">
         <v>148</v>
       </c>
-      <c r="EU8" t="s">
+      <c r="EV8" t="s">
         <v>149</v>
       </c>
-      <c r="EV8" t="s">
+      <c r="EW8" t="s">
         <v>150</v>
-      </c>
-      <c r="EW8" t="s">
-        <v>151</v>
       </c>
       <c r="EX8">
         <v>9.9999999999999995E-7</v>
@@ -5686,13 +5689,13 @@
         <v>25</v>
       </c>
       <c r="FB8" t="s">
+        <v>148</v>
+      </c>
+      <c r="FC8" t="s">
         <v>149</v>
       </c>
-      <c r="FC8" t="s">
+      <c r="FD8" t="s">
         <v>150</v>
-      </c>
-      <c r="FD8" t="s">
-        <v>151</v>
       </c>
       <c r="FE8">
         <v>9.9999999999999995E-7</v>
@@ -5707,16 +5710,16 @@
         <v>25</v>
       </c>
       <c r="FI8" t="s">
+        <v>151</v>
+      </c>
+      <c r="FJ8" t="s">
+        <v>145</v>
+      </c>
+      <c r="FK8" t="s">
         <v>152</v>
       </c>
-      <c r="FJ8" t="s">
-        <v>146</v>
-      </c>
-      <c r="FK8" t="s">
+      <c r="FL8" t="s">
         <v>153</v>
-      </c>
-      <c r="FL8" t="s">
-        <v>154</v>
       </c>
       <c r="FM8">
         <v>200</v>
@@ -5743,7 +5746,7 @@
         <v>20</v>
       </c>
       <c r="FU8" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="FV8">
         <v>532</v>
@@ -5764,19 +5767,19 @@
         <v>75</v>
       </c>
       <c r="GB8" t="s">
+        <v>155</v>
+      </c>
+      <c r="GC8" t="s">
         <v>156</v>
       </c>
-      <c r="GC8" t="s">
+      <c r="GD8" t="s">
+        <v>145</v>
+      </c>
+      <c r="GE8" t="s">
         <v>157</v>
       </c>
-      <c r="GD8" t="s">
-        <v>146</v>
-      </c>
-      <c r="GE8" t="s">
+      <c r="GF8" t="s">
         <v>158</v>
-      </c>
-      <c r="GF8" t="s">
-        <v>159</v>
       </c>
       <c r="GG8">
         <v>25</v>
@@ -5794,7 +5797,7 @@
         <v>250</v>
       </c>
       <c r="GL8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="GM8">
         <v>0.2</v>
@@ -5806,7 +5809,7 @@
         <v>25</v>
       </c>
       <c r="GP8" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="GQ8">
         <v>0.1</v>
@@ -5821,19 +5824,19 @@
         <v>150</v>
       </c>
       <c r="GU8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="GV8">
         <v>35</v>
       </c>
       <c r="GW8" t="s">
+        <v>160</v>
+      </c>
+      <c r="GX8" t="s">
         <v>161</v>
       </c>
-      <c r="GX8" t="s">
+      <c r="GY8" t="s">
         <v>162</v>
-      </c>
-      <c r="GY8" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="9" spans="1:207" x14ac:dyDescent="0.3">
@@ -5859,8 +5862,9 @@
       <c r="G9" t="s">
         <v>130</v>
       </c>
-      <c r="H9" t="s">
-        <v>131</v>
+      <c r="H9">
+        <f t="shared" si="1"/>
+        <v>6.25</v>
       </c>
       <c r="I9">
         <v>0.16</v>
@@ -5872,19 +5876,19 @@
         <v>0.16</v>
       </c>
       <c r="L9" t="s">
+        <v>131</v>
+      </c>
+      <c r="M9" t="s">
         <v>132</v>
-      </c>
-      <c r="M9" t="s">
-        <v>133</v>
       </c>
       <c r="N9">
         <v>1</v>
       </c>
       <c r="O9" t="s">
+        <v>133</v>
+      </c>
+      <c r="P9" t="s">
         <v>134</v>
-      </c>
-      <c r="P9" t="s">
-        <v>135</v>
       </c>
       <c r="Q9">
         <v>31</v>
@@ -5893,7 +5897,7 @@
         <v>61</v>
       </c>
       <c r="S9" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="T9">
         <v>32</v>
@@ -5902,7 +5906,7 @@
         <v>62</v>
       </c>
       <c r="V9" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="W9">
         <v>180</v>
@@ -5911,7 +5915,7 @@
         <v>50</v>
       </c>
       <c r="Y9" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="Z9">
         <v>31</v>
@@ -5920,7 +5924,7 @@
         <v>61</v>
       </c>
       <c r="AB9" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AC9">
         <v>32</v>
@@ -5932,16 +5936,16 @@
         <v>900</v>
       </c>
       <c r="AF9" t="s">
+        <v>136</v>
+      </c>
+      <c r="AG9" t="s">
         <v>137</v>
       </c>
-      <c r="AG9" t="s">
+      <c r="AH9" t="s">
         <v>138</v>
       </c>
-      <c r="AH9" t="s">
+      <c r="AI9" t="s">
         <v>139</v>
-      </c>
-      <c r="AI9" t="s">
-        <v>140</v>
       </c>
       <c r="AJ9">
         <v>10</v>
@@ -5950,7 +5954,7 @@
         <v>1.5</v>
       </c>
       <c r="AL9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AM9">
         <v>1.42</v>
@@ -5977,22 +5981,22 @@
         <v>120</v>
       </c>
       <c r="AU9" t="s">
+        <v>141</v>
+      </c>
+      <c r="AV9" t="s">
         <v>142</v>
       </c>
-      <c r="AV9" t="s">
-        <v>143</v>
-      </c>
       <c r="AW9" t="s">
+        <v>136</v>
+      </c>
+      <c r="AX9" t="s">
         <v>137</v>
       </c>
-      <c r="AX9" t="s">
+      <c r="AY9" t="s">
         <v>138</v>
       </c>
-      <c r="AY9" t="s">
+      <c r="AZ9" t="s">
         <v>139</v>
-      </c>
-      <c r="AZ9" t="s">
-        <v>140</v>
       </c>
       <c r="BA9">
         <v>10</v>
@@ -6001,7 +6005,7 @@
         <v>1.5</v>
       </c>
       <c r="BC9" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="BD9">
         <v>20</v>
@@ -6010,31 +6014,31 @@
         <v>1.5</v>
       </c>
       <c r="BF9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="BG9">
         <v>1.42</v>
       </c>
       <c r="BH9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="BI9">
         <v>1.42</v>
       </c>
       <c r="BJ9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="BK9">
         <v>1.42</v>
       </c>
       <c r="BL9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="BM9">
         <v>1.42</v>
       </c>
       <c r="BN9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="BO9">
         <v>1.42</v>
@@ -6049,22 +6053,22 @@
         <v>120</v>
       </c>
       <c r="BS9" t="s">
+        <v>141</v>
+      </c>
+      <c r="BT9" t="s">
         <v>142</v>
       </c>
-      <c r="BT9" t="s">
-        <v>143</v>
-      </c>
       <c r="BU9" t="s">
+        <v>136</v>
+      </c>
+      <c r="BV9" t="s">
         <v>137</v>
       </c>
-      <c r="BV9" t="s">
+      <c r="BW9" t="s">
         <v>138</v>
       </c>
-      <c r="BW9" t="s">
+      <c r="BX9" t="s">
         <v>139</v>
-      </c>
-      <c r="BX9" t="s">
-        <v>140</v>
       </c>
       <c r="BY9">
         <v>10</v>
@@ -6073,13 +6077,13 @@
         <v>1.5</v>
       </c>
       <c r="CA9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="CB9">
         <v>1.42</v>
       </c>
       <c r="CC9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="CD9">
         <v>1.42</v>
@@ -6115,22 +6119,22 @@
         <v>120</v>
       </c>
       <c r="CO9" t="s">
+        <v>141</v>
+      </c>
+      <c r="CP9" t="s">
         <v>142</v>
       </c>
-      <c r="CP9" t="s">
-        <v>143</v>
-      </c>
       <c r="CQ9" t="s">
+        <v>136</v>
+      </c>
+      <c r="CR9" t="s">
         <v>137</v>
       </c>
-      <c r="CR9" t="s">
+      <c r="CS9" t="s">
         <v>138</v>
       </c>
-      <c r="CS9" t="s">
+      <c r="CT9" t="s">
         <v>139</v>
-      </c>
-      <c r="CT9" t="s">
-        <v>140</v>
       </c>
       <c r="CU9">
         <v>10</v>
@@ -6139,19 +6143,19 @@
         <v>1.5</v>
       </c>
       <c r="CW9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="CX9">
         <v>1.42</v>
       </c>
       <c r="CY9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="CZ9">
         <v>1.42</v>
       </c>
       <c r="DA9" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="DB9">
         <v>128</v>
@@ -6193,19 +6197,19 @@
         <v>120</v>
       </c>
       <c r="DO9" t="s">
+        <v>141</v>
+      </c>
+      <c r="DP9" t="s">
         <v>142</v>
       </c>
-      <c r="DP9" t="s">
-        <v>143</v>
-      </c>
       <c r="DQ9" t="s">
+        <v>144</v>
+      </c>
+      <c r="DR9" t="s">
         <v>145</v>
       </c>
-      <c r="DR9" t="s">
+      <c r="DS9" t="s">
         <v>146</v>
-      </c>
-      <c r="DS9" t="s">
-        <v>147</v>
       </c>
       <c r="DT9" t="b">
         <v>1</v>
@@ -6241,16 +6245,16 @@
         <v>1.5</v>
       </c>
       <c r="EE9" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="EF9" t="s">
+        <v>144</v>
+      </c>
+      <c r="EG9" t="s">
         <v>145</v>
       </c>
-      <c r="EG9" t="s">
+      <c r="EH9" t="s">
         <v>146</v>
-      </c>
-      <c r="EH9" t="s">
-        <v>147</v>
       </c>
       <c r="EI9" t="b">
         <v>0</v>
@@ -6286,16 +6290,16 @@
         <v>1.5</v>
       </c>
       <c r="ET9" t="s">
+        <v>147</v>
+      </c>
+      <c r="EU9" t="s">
         <v>148</v>
       </c>
-      <c r="EU9" t="s">
+      <c r="EV9" t="s">
         <v>149</v>
       </c>
-      <c r="EV9" t="s">
+      <c r="EW9" t="s">
         <v>150</v>
-      </c>
-      <c r="EW9" t="s">
-        <v>151</v>
       </c>
       <c r="EX9">
         <v>9.9999999999999995E-7</v>
@@ -6310,13 +6314,13 @@
         <v>25</v>
       </c>
       <c r="FB9" t="s">
+        <v>148</v>
+      </c>
+      <c r="FC9" t="s">
         <v>149</v>
       </c>
-      <c r="FC9" t="s">
+      <c r="FD9" t="s">
         <v>150</v>
-      </c>
-      <c r="FD9" t="s">
-        <v>151</v>
       </c>
       <c r="FE9">
         <v>9.9999999999999995E-7</v>
@@ -6331,16 +6335,16 @@
         <v>25</v>
       </c>
       <c r="FI9" t="s">
+        <v>151</v>
+      </c>
+      <c r="FJ9" t="s">
+        <v>145</v>
+      </c>
+      <c r="FK9" t="s">
         <v>152</v>
       </c>
-      <c r="FJ9" t="s">
-        <v>146</v>
-      </c>
-      <c r="FK9" t="s">
+      <c r="FL9" t="s">
         <v>153</v>
-      </c>
-      <c r="FL9" t="s">
-        <v>154</v>
       </c>
       <c r="FM9">
         <v>200</v>
@@ -6367,7 +6371,7 @@
         <v>20</v>
       </c>
       <c r="FU9" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="FV9">
         <v>532</v>
@@ -6388,19 +6392,19 @@
         <v>75</v>
       </c>
       <c r="GB9" t="s">
+        <v>155</v>
+      </c>
+      <c r="GC9" t="s">
         <v>156</v>
       </c>
-      <c r="GC9" t="s">
+      <c r="GD9" t="s">
+        <v>145</v>
+      </c>
+      <c r="GE9" t="s">
         <v>157</v>
       </c>
-      <c r="GD9" t="s">
-        <v>146</v>
-      </c>
-      <c r="GE9" t="s">
+      <c r="GF9" t="s">
         <v>158</v>
-      </c>
-      <c r="GF9" t="s">
-        <v>159</v>
       </c>
       <c r="GG9">
         <v>25</v>
@@ -6418,7 +6422,7 @@
         <v>250</v>
       </c>
       <c r="GL9" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="GM9">
         <v>0.2</v>
@@ -6430,7 +6434,7 @@
         <v>25</v>
       </c>
       <c r="GP9" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="GQ9">
         <v>0.1</v>
@@ -6445,19 +6449,19 @@
         <v>150</v>
       </c>
       <c r="GU9" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="GV9">
         <v>35</v>
       </c>
       <c r="GW9" t="s">
+        <v>160</v>
+      </c>
+      <c r="GX9" t="s">
         <v>161</v>
       </c>
-      <c r="GX9" t="s">
+      <c r="GY9" t="s">
         <v>162</v>
-      </c>
-      <c r="GY9" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="10" spans="1:207" x14ac:dyDescent="0.3">
@@ -6483,8 +6487,9 @@
       <c r="G10" t="s">
         <v>130</v>
       </c>
-      <c r="H10" t="s">
-        <v>131</v>
+      <c r="H10">
+        <f t="shared" si="1"/>
+        <v>6.25</v>
       </c>
       <c r="I10">
         <v>0.16</v>
@@ -6496,19 +6501,19 @@
         <v>0.16</v>
       </c>
       <c r="L10" t="s">
+        <v>131</v>
+      </c>
+      <c r="M10" t="s">
         <v>132</v>
-      </c>
-      <c r="M10" t="s">
-        <v>133</v>
       </c>
       <c r="N10">
         <v>1</v>
       </c>
       <c r="O10" t="s">
+        <v>133</v>
+      </c>
+      <c r="P10" t="s">
         <v>134</v>
-      </c>
-      <c r="P10" t="s">
-        <v>135</v>
       </c>
       <c r="Q10">
         <v>31</v>
@@ -6517,7 +6522,7 @@
         <v>61</v>
       </c>
       <c r="S10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="T10">
         <v>32</v>
@@ -6526,7 +6531,7 @@
         <v>62</v>
       </c>
       <c r="V10" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="W10">
         <v>180</v>
@@ -6535,7 +6540,7 @@
         <v>50</v>
       </c>
       <c r="Y10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="Z10">
         <v>31</v>
@@ -6544,7 +6549,7 @@
         <v>61</v>
       </c>
       <c r="AB10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AC10">
         <v>32</v>
@@ -6556,16 +6561,16 @@
         <v>900</v>
       </c>
       <c r="AF10" t="s">
+        <v>136</v>
+      </c>
+      <c r="AG10" t="s">
         <v>137</v>
       </c>
-      <c r="AG10" t="s">
+      <c r="AH10" t="s">
         <v>138</v>
       </c>
-      <c r="AH10" t="s">
+      <c r="AI10" t="s">
         <v>139</v>
-      </c>
-      <c r="AI10" t="s">
-        <v>140</v>
       </c>
       <c r="AJ10">
         <v>10</v>
@@ -6574,7 +6579,7 @@
         <v>1.5</v>
       </c>
       <c r="AL10" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AM10">
         <v>1.42</v>
@@ -6601,22 +6606,22 @@
         <v>120</v>
       </c>
       <c r="AU10" t="s">
+        <v>141</v>
+      </c>
+      <c r="AV10" t="s">
         <v>142</v>
       </c>
-      <c r="AV10" t="s">
-        <v>143</v>
-      </c>
       <c r="AW10" t="s">
+        <v>136</v>
+      </c>
+      <c r="AX10" t="s">
         <v>137</v>
       </c>
-      <c r="AX10" t="s">
+      <c r="AY10" t="s">
         <v>138</v>
       </c>
-      <c r="AY10" t="s">
+      <c r="AZ10" t="s">
         <v>139</v>
-      </c>
-      <c r="AZ10" t="s">
-        <v>140</v>
       </c>
       <c r="BA10">
         <v>10</v>
@@ -6625,7 +6630,7 @@
         <v>1.5</v>
       </c>
       <c r="BC10" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="BD10">
         <v>20</v>
@@ -6634,31 +6639,31 @@
         <v>1.5</v>
       </c>
       <c r="BF10" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="BG10">
         <v>1.42</v>
       </c>
       <c r="BH10" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="BI10">
         <v>1.42</v>
       </c>
       <c r="BJ10" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="BK10">
         <v>1.42</v>
       </c>
       <c r="BL10" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="BM10">
         <v>1.42</v>
       </c>
       <c r="BN10" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="BO10">
         <v>1.42</v>
@@ -6673,22 +6678,22 @@
         <v>120</v>
       </c>
       <c r="BS10" t="s">
+        <v>141</v>
+      </c>
+      <c r="BT10" t="s">
         <v>142</v>
       </c>
-      <c r="BT10" t="s">
-        <v>143</v>
-      </c>
       <c r="BU10" t="s">
+        <v>136</v>
+      </c>
+      <c r="BV10" t="s">
         <v>137</v>
       </c>
-      <c r="BV10" t="s">
+      <c r="BW10" t="s">
         <v>138</v>
       </c>
-      <c r="BW10" t="s">
+      <c r="BX10" t="s">
         <v>139</v>
-      </c>
-      <c r="BX10" t="s">
-        <v>140</v>
       </c>
       <c r="BY10">
         <v>10</v>
@@ -6697,13 +6702,13 @@
         <v>1.5</v>
       </c>
       <c r="CA10" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="CB10">
         <v>1.42</v>
       </c>
       <c r="CC10" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="CD10">
         <v>1.42</v>
@@ -6739,22 +6744,22 @@
         <v>120</v>
       </c>
       <c r="CO10" t="s">
+        <v>141</v>
+      </c>
+      <c r="CP10" t="s">
         <v>142</v>
       </c>
-      <c r="CP10" t="s">
-        <v>143</v>
-      </c>
       <c r="CQ10" t="s">
+        <v>136</v>
+      </c>
+      <c r="CR10" t="s">
         <v>137</v>
       </c>
-      <c r="CR10" t="s">
+      <c r="CS10" t="s">
         <v>138</v>
       </c>
-      <c r="CS10" t="s">
+      <c r="CT10" t="s">
         <v>139</v>
-      </c>
-      <c r="CT10" t="s">
-        <v>140</v>
       </c>
       <c r="CU10">
         <v>10</v>
@@ -6763,19 +6768,19 @@
         <v>1.5</v>
       </c>
       <c r="CW10" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="CX10">
         <v>1.42</v>
       </c>
       <c r="CY10" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="CZ10">
         <v>1.42</v>
       </c>
       <c r="DA10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="DB10">
         <v>128</v>
@@ -6817,19 +6822,19 @@
         <v>120</v>
       </c>
       <c r="DO10" t="s">
+        <v>141</v>
+      </c>
+      <c r="DP10" t="s">
         <v>142</v>
       </c>
-      <c r="DP10" t="s">
-        <v>143</v>
-      </c>
       <c r="DQ10" t="s">
+        <v>144</v>
+      </c>
+      <c r="DR10" t="s">
         <v>145</v>
       </c>
-      <c r="DR10" t="s">
+      <c r="DS10" t="s">
         <v>146</v>
-      </c>
-      <c r="DS10" t="s">
-        <v>147</v>
       </c>
       <c r="DT10" t="b">
         <v>1</v>
@@ -6865,16 +6870,16 @@
         <v>1.5</v>
       </c>
       <c r="EE10" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="EF10" t="s">
+        <v>144</v>
+      </c>
+      <c r="EG10" t="s">
         <v>145</v>
       </c>
-      <c r="EG10" t="s">
+      <c r="EH10" t="s">
         <v>146</v>
-      </c>
-      <c r="EH10" t="s">
-        <v>147</v>
       </c>
       <c r="EI10" t="b">
         <v>0</v>
@@ -6910,16 +6915,16 @@
         <v>1.5</v>
       </c>
       <c r="ET10" t="s">
+        <v>147</v>
+      </c>
+      <c r="EU10" t="s">
         <v>148</v>
       </c>
-      <c r="EU10" t="s">
+      <c r="EV10" t="s">
         <v>149</v>
       </c>
-      <c r="EV10" t="s">
+      <c r="EW10" t="s">
         <v>150</v>
-      </c>
-      <c r="EW10" t="s">
-        <v>151</v>
       </c>
       <c r="EX10">
         <v>9.9999999999999995E-7</v>
@@ -6934,13 +6939,13 @@
         <v>25</v>
       </c>
       <c r="FB10" t="s">
+        <v>148</v>
+      </c>
+      <c r="FC10" t="s">
         <v>149</v>
       </c>
-      <c r="FC10" t="s">
+      <c r="FD10" t="s">
         <v>150</v>
-      </c>
-      <c r="FD10" t="s">
-        <v>151</v>
       </c>
       <c r="FE10">
         <v>9.9999999999999995E-7</v>
@@ -6955,16 +6960,16 @@
         <v>25</v>
       </c>
       <c r="FI10" t="s">
+        <v>151</v>
+      </c>
+      <c r="FJ10" t="s">
+        <v>145</v>
+      </c>
+      <c r="FK10" t="s">
         <v>152</v>
       </c>
-      <c r="FJ10" t="s">
-        <v>146</v>
-      </c>
-      <c r="FK10" t="s">
+      <c r="FL10" t="s">
         <v>153</v>
-      </c>
-      <c r="FL10" t="s">
-        <v>154</v>
       </c>
       <c r="FM10">
         <v>200</v>
@@ -6991,7 +6996,7 @@
         <v>20</v>
       </c>
       <c r="FU10" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="FV10">
         <v>532</v>
@@ -7012,19 +7017,19 @@
         <v>75</v>
       </c>
       <c r="GB10" t="s">
+        <v>155</v>
+      </c>
+      <c r="GC10" t="s">
         <v>156</v>
       </c>
-      <c r="GC10" t="s">
+      <c r="GD10" t="s">
+        <v>145</v>
+      </c>
+      <c r="GE10" t="s">
         <v>157</v>
       </c>
-      <c r="GD10" t="s">
-        <v>146</v>
-      </c>
-      <c r="GE10" t="s">
+      <c r="GF10" t="s">
         <v>158</v>
-      </c>
-      <c r="GF10" t="s">
-        <v>159</v>
       </c>
       <c r="GG10">
         <v>25</v>
@@ -7042,7 +7047,7 @@
         <v>250</v>
       </c>
       <c r="GL10" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="GM10">
         <v>0.2</v>
@@ -7054,7 +7059,7 @@
         <v>25</v>
       </c>
       <c r="GP10" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="GQ10">
         <v>0.1</v>
@@ -7069,19 +7074,19 @@
         <v>150</v>
       </c>
       <c r="GU10" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="GV10">
         <v>35</v>
       </c>
       <c r="GW10" t="s">
+        <v>160</v>
+      </c>
+      <c r="GX10" t="s">
         <v>161</v>
       </c>
-      <c r="GX10" t="s">
+      <c r="GY10" t="s">
         <v>162</v>
-      </c>
-      <c r="GY10" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="11" spans="1:207" x14ac:dyDescent="0.3">
@@ -7107,8 +7112,9 @@
       <c r="G11" t="s">
         <v>130</v>
       </c>
-      <c r="H11" t="s">
-        <v>131</v>
+      <c r="H11">
+        <f t="shared" si="1"/>
+        <v>6.25</v>
       </c>
       <c r="I11">
         <v>0.16</v>
@@ -7120,19 +7126,19 @@
         <v>0.16</v>
       </c>
       <c r="L11" t="s">
+        <v>131</v>
+      </c>
+      <c r="M11" t="s">
         <v>132</v>
-      </c>
-      <c r="M11" t="s">
-        <v>133</v>
       </c>
       <c r="N11">
         <v>1</v>
       </c>
       <c r="O11" t="s">
+        <v>133</v>
+      </c>
+      <c r="P11" t="s">
         <v>134</v>
-      </c>
-      <c r="P11" t="s">
-        <v>135</v>
       </c>
       <c r="Q11">
         <v>31</v>
@@ -7141,7 +7147,7 @@
         <v>61</v>
       </c>
       <c r="S11" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="T11">
         <v>32</v>
@@ -7150,7 +7156,7 @@
         <v>62</v>
       </c>
       <c r="V11" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="W11">
         <v>180</v>
@@ -7159,7 +7165,7 @@
         <v>50</v>
       </c>
       <c r="Y11" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="Z11">
         <v>31</v>
@@ -7168,7 +7174,7 @@
         <v>61</v>
       </c>
       <c r="AB11" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AC11">
         <v>32</v>
@@ -7180,16 +7186,16 @@
         <v>900</v>
       </c>
       <c r="AF11" t="s">
+        <v>136</v>
+      </c>
+      <c r="AG11" t="s">
         <v>137</v>
       </c>
-      <c r="AG11" t="s">
+      <c r="AH11" t="s">
         <v>138</v>
       </c>
-      <c r="AH11" t="s">
+      <c r="AI11" t="s">
         <v>139</v>
-      </c>
-      <c r="AI11" t="s">
-        <v>140</v>
       </c>
       <c r="AJ11">
         <v>10</v>
@@ -7198,7 +7204,7 @@
         <v>1.5</v>
       </c>
       <c r="AL11" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AM11">
         <v>1.42</v>
@@ -7225,22 +7231,22 @@
         <v>120</v>
       </c>
       <c r="AU11" t="s">
+        <v>141</v>
+      </c>
+      <c r="AV11" t="s">
         <v>142</v>
       </c>
-      <c r="AV11" t="s">
-        <v>143</v>
-      </c>
       <c r="AW11" t="s">
+        <v>136</v>
+      </c>
+      <c r="AX11" t="s">
         <v>137</v>
       </c>
-      <c r="AX11" t="s">
+      <c r="AY11" t="s">
         <v>138</v>
       </c>
-      <c r="AY11" t="s">
+      <c r="AZ11" t="s">
         <v>139</v>
-      </c>
-      <c r="AZ11" t="s">
-        <v>140</v>
       </c>
       <c r="BA11">
         <v>10</v>
@@ -7249,7 +7255,7 @@
         <v>1.5</v>
       </c>
       <c r="BC11" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="BD11">
         <v>20</v>
@@ -7258,31 +7264,31 @@
         <v>1.5</v>
       </c>
       <c r="BF11" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="BG11">
         <v>1.42</v>
       </c>
       <c r="BH11" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="BI11">
         <v>1.42</v>
       </c>
       <c r="BJ11" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="BK11">
         <v>1.42</v>
       </c>
       <c r="BL11" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="BM11">
         <v>1.42</v>
       </c>
       <c r="BN11" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="BO11">
         <v>1.42</v>
@@ -7297,22 +7303,22 @@
         <v>120</v>
       </c>
       <c r="BS11" t="s">
+        <v>141</v>
+      </c>
+      <c r="BT11" t="s">
         <v>142</v>
       </c>
-      <c r="BT11" t="s">
-        <v>143</v>
-      </c>
       <c r="BU11" t="s">
+        <v>136</v>
+      </c>
+      <c r="BV11" t="s">
         <v>137</v>
       </c>
-      <c r="BV11" t="s">
+      <c r="BW11" t="s">
         <v>138</v>
       </c>
-      <c r="BW11" t="s">
+      <c r="BX11" t="s">
         <v>139</v>
-      </c>
-      <c r="BX11" t="s">
-        <v>140</v>
       </c>
       <c r="BY11">
         <v>10</v>
@@ -7321,13 +7327,13 @@
         <v>1.5</v>
       </c>
       <c r="CA11" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="CB11">
         <v>1.42</v>
       </c>
       <c r="CC11" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="CD11">
         <v>1.42</v>
@@ -7363,22 +7369,22 @@
         <v>120</v>
       </c>
       <c r="CO11" t="s">
+        <v>141</v>
+      </c>
+      <c r="CP11" t="s">
         <v>142</v>
       </c>
-      <c r="CP11" t="s">
-        <v>143</v>
-      </c>
       <c r="CQ11" t="s">
+        <v>136</v>
+      </c>
+      <c r="CR11" t="s">
         <v>137</v>
       </c>
-      <c r="CR11" t="s">
+      <c r="CS11" t="s">
         <v>138</v>
       </c>
-      <c r="CS11" t="s">
+      <c r="CT11" t="s">
         <v>139</v>
-      </c>
-      <c r="CT11" t="s">
-        <v>140</v>
       </c>
       <c r="CU11">
         <v>10</v>
@@ -7387,19 +7393,19 @@
         <v>1.5</v>
       </c>
       <c r="CW11" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="CX11">
         <v>1.42</v>
       </c>
       <c r="CY11" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="CZ11">
         <v>1.42</v>
       </c>
       <c r="DA11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="DB11">
         <v>128</v>
@@ -7441,19 +7447,19 @@
         <v>120</v>
       </c>
       <c r="DO11" t="s">
+        <v>141</v>
+      </c>
+      <c r="DP11" t="s">
         <v>142</v>
       </c>
-      <c r="DP11" t="s">
-        <v>143</v>
-      </c>
       <c r="DQ11" t="s">
+        <v>144</v>
+      </c>
+      <c r="DR11" t="s">
         <v>145</v>
       </c>
-      <c r="DR11" t="s">
+      <c r="DS11" t="s">
         <v>146</v>
-      </c>
-      <c r="DS11" t="s">
-        <v>147</v>
       </c>
       <c r="DT11" t="b">
         <v>1</v>
@@ -7489,16 +7495,16 @@
         <v>1.5</v>
       </c>
       <c r="EE11" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="EF11" t="s">
+        <v>144</v>
+      </c>
+      <c r="EG11" t="s">
         <v>145</v>
       </c>
-      <c r="EG11" t="s">
+      <c r="EH11" t="s">
         <v>146</v>
-      </c>
-      <c r="EH11" t="s">
-        <v>147</v>
       </c>
       <c r="EI11" t="b">
         <v>0</v>
@@ -7534,16 +7540,16 @@
         <v>1.5</v>
       </c>
       <c r="ET11" t="s">
+        <v>147</v>
+      </c>
+      <c r="EU11" t="s">
         <v>148</v>
       </c>
-      <c r="EU11" t="s">
+      <c r="EV11" t="s">
         <v>149</v>
       </c>
-      <c r="EV11" t="s">
+      <c r="EW11" t="s">
         <v>150</v>
-      </c>
-      <c r="EW11" t="s">
-        <v>151</v>
       </c>
       <c r="EX11">
         <v>9.9999999999999995E-7</v>
@@ -7558,13 +7564,13 @@
         <v>25</v>
       </c>
       <c r="FB11" t="s">
+        <v>148</v>
+      </c>
+      <c r="FC11" t="s">
         <v>149</v>
       </c>
-      <c r="FC11" t="s">
+      <c r="FD11" t="s">
         <v>150</v>
-      </c>
-      <c r="FD11" t="s">
-        <v>151</v>
       </c>
       <c r="FE11">
         <v>9.9999999999999995E-7</v>
@@ -7579,16 +7585,16 @@
         <v>25</v>
       </c>
       <c r="FI11" t="s">
+        <v>151</v>
+      </c>
+      <c r="FJ11" t="s">
+        <v>145</v>
+      </c>
+      <c r="FK11" t="s">
         <v>152</v>
       </c>
-      <c r="FJ11" t="s">
-        <v>146</v>
-      </c>
-      <c r="FK11" t="s">
+      <c r="FL11" t="s">
         <v>153</v>
-      </c>
-      <c r="FL11" t="s">
-        <v>154</v>
       </c>
       <c r="FM11">
         <v>200</v>
@@ -7615,7 +7621,7 @@
         <v>20</v>
       </c>
       <c r="FU11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="FV11">
         <v>532</v>
@@ -7636,19 +7642,19 @@
         <v>75</v>
       </c>
       <c r="GB11" t="s">
+        <v>155</v>
+      </c>
+      <c r="GC11" t="s">
         <v>156</v>
       </c>
-      <c r="GC11" t="s">
+      <c r="GD11" t="s">
+        <v>145</v>
+      </c>
+      <c r="GE11" t="s">
         <v>157</v>
       </c>
-      <c r="GD11" t="s">
-        <v>146</v>
-      </c>
-      <c r="GE11" t="s">
+      <c r="GF11" t="s">
         <v>158</v>
-      </c>
-      <c r="GF11" t="s">
-        <v>159</v>
       </c>
       <c r="GG11">
         <v>25</v>
@@ -7666,7 +7672,7 @@
         <v>250</v>
       </c>
       <c r="GL11" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="GM11">
         <v>0.2</v>
@@ -7678,7 +7684,7 @@
         <v>25</v>
       </c>
       <c r="GP11" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="GQ11">
         <v>0.1</v>
@@ -7693,19 +7699,19 @@
         <v>150</v>
       </c>
       <c r="GU11" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="GV11">
         <v>35</v>
       </c>
       <c r="GW11" t="s">
+        <v>160</v>
+      </c>
+      <c r="GX11" t="s">
         <v>161</v>
       </c>
-      <c r="GX11" t="s">
+      <c r="GY11" t="s">
         <v>162</v>
-      </c>
-      <c r="GY11" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="12" spans="1:207" x14ac:dyDescent="0.3">
@@ -7731,8 +7737,9 @@
       <c r="G12" t="s">
         <v>130</v>
       </c>
-      <c r="H12" t="s">
-        <v>131</v>
+      <c r="H12">
+        <f t="shared" si="1"/>
+        <v>6.25</v>
       </c>
       <c r="I12">
         <v>0.16</v>
@@ -7744,19 +7751,19 @@
         <v>0.16</v>
       </c>
       <c r="L12" t="s">
+        <v>131</v>
+      </c>
+      <c r="M12" t="s">
         <v>132</v>
-      </c>
-      <c r="M12" t="s">
-        <v>133</v>
       </c>
       <c r="N12">
         <v>1</v>
       </c>
       <c r="O12" t="s">
+        <v>133</v>
+      </c>
+      <c r="P12" t="s">
         <v>134</v>
-      </c>
-      <c r="P12" t="s">
-        <v>135</v>
       </c>
       <c r="Q12">
         <v>31</v>
@@ -7765,7 +7772,7 @@
         <v>61</v>
       </c>
       <c r="S12" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="T12">
         <v>32</v>
@@ -7774,7 +7781,7 @@
         <v>62</v>
       </c>
       <c r="V12" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="W12">
         <v>180</v>
@@ -7783,7 +7790,7 @@
         <v>50</v>
       </c>
       <c r="Y12" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="Z12">
         <v>31</v>
@@ -7792,7 +7799,7 @@
         <v>61</v>
       </c>
       <c r="AB12" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AC12">
         <v>32</v>
@@ -7804,16 +7811,16 @@
         <v>900</v>
       </c>
       <c r="AF12" t="s">
+        <v>136</v>
+      </c>
+      <c r="AG12" t="s">
         <v>137</v>
       </c>
-      <c r="AG12" t="s">
+      <c r="AH12" t="s">
         <v>138</v>
       </c>
-      <c r="AH12" t="s">
+      <c r="AI12" t="s">
         <v>139</v>
-      </c>
-      <c r="AI12" t="s">
-        <v>140</v>
       </c>
       <c r="AJ12">
         <v>10</v>
@@ -7822,7 +7829,7 @@
         <v>1.5</v>
       </c>
       <c r="AL12" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AM12">
         <v>1.42</v>
@@ -7849,22 +7856,22 @@
         <v>120</v>
       </c>
       <c r="AU12" t="s">
+        <v>141</v>
+      </c>
+      <c r="AV12" t="s">
         <v>142</v>
       </c>
-      <c r="AV12" t="s">
-        <v>143</v>
-      </c>
       <c r="AW12" t="s">
+        <v>136</v>
+      </c>
+      <c r="AX12" t="s">
         <v>137</v>
       </c>
-      <c r="AX12" t="s">
+      <c r="AY12" t="s">
         <v>138</v>
       </c>
-      <c r="AY12" t="s">
+      <c r="AZ12" t="s">
         <v>139</v>
-      </c>
-      <c r="AZ12" t="s">
-        <v>140</v>
       </c>
       <c r="BA12">
         <v>10</v>
@@ -7873,7 +7880,7 @@
         <v>1.5</v>
       </c>
       <c r="BC12" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="BD12">
         <v>20</v>
@@ -7882,31 +7889,31 @@
         <v>1.5</v>
       </c>
       <c r="BF12" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="BG12">
         <v>1.42</v>
       </c>
       <c r="BH12" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="BI12">
         <v>1.42</v>
       </c>
       <c r="BJ12" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="BK12">
         <v>1.42</v>
       </c>
       <c r="BL12" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="BM12">
         <v>1.42</v>
       </c>
       <c r="BN12" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="BO12">
         <v>1.42</v>
@@ -7921,22 +7928,22 @@
         <v>120</v>
       </c>
       <c r="BS12" t="s">
+        <v>141</v>
+      </c>
+      <c r="BT12" t="s">
         <v>142</v>
       </c>
-      <c r="BT12" t="s">
-        <v>143</v>
-      </c>
       <c r="BU12" t="s">
+        <v>136</v>
+      </c>
+      <c r="BV12" t="s">
         <v>137</v>
       </c>
-      <c r="BV12" t="s">
+      <c r="BW12" t="s">
         <v>138</v>
       </c>
-      <c r="BW12" t="s">
+      <c r="BX12" t="s">
         <v>139</v>
-      </c>
-      <c r="BX12" t="s">
-        <v>140</v>
       </c>
       <c r="BY12">
         <v>10</v>
@@ -7945,13 +7952,13 @@
         <v>1.5</v>
       </c>
       <c r="CA12" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="CB12">
         <v>1.42</v>
       </c>
       <c r="CC12" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="CD12">
         <v>1.42</v>
@@ -7987,22 +7994,22 @@
         <v>120</v>
       </c>
       <c r="CO12" t="s">
+        <v>141</v>
+      </c>
+      <c r="CP12" t="s">
         <v>142</v>
       </c>
-      <c r="CP12" t="s">
-        <v>143</v>
-      </c>
       <c r="CQ12" t="s">
+        <v>136</v>
+      </c>
+      <c r="CR12" t="s">
         <v>137</v>
       </c>
-      <c r="CR12" t="s">
+      <c r="CS12" t="s">
         <v>138</v>
       </c>
-      <c r="CS12" t="s">
+      <c r="CT12" t="s">
         <v>139</v>
-      </c>
-      <c r="CT12" t="s">
-        <v>140</v>
       </c>
       <c r="CU12">
         <v>10</v>
@@ -8011,19 +8018,19 @@
         <v>1.5</v>
       </c>
       <c r="CW12" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="CX12">
         <v>1.42</v>
       </c>
       <c r="CY12" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="CZ12">
         <v>1.42</v>
       </c>
       <c r="DA12" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="DB12">
         <v>128</v>
@@ -8065,19 +8072,19 @@
         <v>120</v>
       </c>
       <c r="DO12" t="s">
+        <v>141</v>
+      </c>
+      <c r="DP12" t="s">
         <v>142</v>
       </c>
-      <c r="DP12" t="s">
-        <v>143</v>
-      </c>
       <c r="DQ12" t="s">
+        <v>144</v>
+      </c>
+      <c r="DR12" t="s">
         <v>145</v>
       </c>
-      <c r="DR12" t="s">
+      <c r="DS12" t="s">
         <v>146</v>
-      </c>
-      <c r="DS12" t="s">
-        <v>147</v>
       </c>
       <c r="DT12" t="b">
         <v>1</v>
@@ -8113,16 +8120,16 @@
         <v>1.5</v>
       </c>
       <c r="EE12" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="EF12" t="s">
+        <v>144</v>
+      </c>
+      <c r="EG12" t="s">
         <v>145</v>
       </c>
-      <c r="EG12" t="s">
+      <c r="EH12" t="s">
         <v>146</v>
-      </c>
-      <c r="EH12" t="s">
-        <v>147</v>
       </c>
       <c r="EI12" t="b">
         <v>0</v>
@@ -8158,16 +8165,16 @@
         <v>1.5</v>
       </c>
       <c r="ET12" t="s">
+        <v>147</v>
+      </c>
+      <c r="EU12" t="s">
         <v>148</v>
       </c>
-      <c r="EU12" t="s">
+      <c r="EV12" t="s">
         <v>149</v>
       </c>
-      <c r="EV12" t="s">
+      <c r="EW12" t="s">
         <v>150</v>
-      </c>
-      <c r="EW12" t="s">
-        <v>151</v>
       </c>
       <c r="EX12">
         <v>9.9999999999999995E-7</v>
@@ -8182,13 +8189,13 @@
         <v>25</v>
       </c>
       <c r="FB12" t="s">
+        <v>148</v>
+      </c>
+      <c r="FC12" t="s">
         <v>149</v>
       </c>
-      <c r="FC12" t="s">
+      <c r="FD12" t="s">
         <v>150</v>
-      </c>
-      <c r="FD12" t="s">
-        <v>151</v>
       </c>
       <c r="FE12">
         <v>9.9999999999999995E-7</v>
@@ -8203,16 +8210,16 @@
         <v>25</v>
       </c>
       <c r="FI12" t="s">
+        <v>151</v>
+      </c>
+      <c r="FJ12" t="s">
+        <v>145</v>
+      </c>
+      <c r="FK12" t="s">
         <v>152</v>
       </c>
-      <c r="FJ12" t="s">
-        <v>146</v>
-      </c>
-      <c r="FK12" t="s">
+      <c r="FL12" t="s">
         <v>153</v>
-      </c>
-      <c r="FL12" t="s">
-        <v>154</v>
       </c>
       <c r="FM12">
         <v>200</v>
@@ -8239,7 +8246,7 @@
         <v>20</v>
       </c>
       <c r="FU12" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="FV12">
         <v>532</v>
@@ -8260,19 +8267,19 @@
         <v>75</v>
       </c>
       <c r="GB12" t="s">
+        <v>155</v>
+      </c>
+      <c r="GC12" t="s">
         <v>156</v>
       </c>
-      <c r="GC12" t="s">
+      <c r="GD12" t="s">
+        <v>145</v>
+      </c>
+      <c r="GE12" t="s">
         <v>157</v>
       </c>
-      <c r="GD12" t="s">
-        <v>146</v>
-      </c>
-      <c r="GE12" t="s">
+      <c r="GF12" t="s">
         <v>158</v>
-      </c>
-      <c r="GF12" t="s">
-        <v>159</v>
       </c>
       <c r="GG12">
         <v>25</v>
@@ -8290,7 +8297,7 @@
         <v>250</v>
       </c>
       <c r="GL12" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="GM12">
         <v>0.2</v>
@@ -8302,7 +8309,7 @@
         <v>25</v>
       </c>
       <c r="GP12" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="GQ12">
         <v>0.1</v>
@@ -8317,19 +8324,19 @@
         <v>150</v>
       </c>
       <c r="GU12" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="GV12">
         <v>35</v>
       </c>
       <c r="GW12" t="s">
+        <v>160</v>
+      </c>
+      <c r="GX12" t="s">
         <v>161</v>
       </c>
-      <c r="GX12" t="s">
+      <c r="GY12" t="s">
         <v>162</v>
-      </c>
-      <c r="GY12" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="13" spans="1:207" x14ac:dyDescent="0.3">
@@ -8355,8 +8362,9 @@
       <c r="G13" t="s">
         <v>130</v>
       </c>
-      <c r="H13" t="s">
-        <v>131</v>
+      <c r="H13">
+        <f t="shared" si="1"/>
+        <v>6.25</v>
       </c>
       <c r="I13">
         <v>0.16</v>
@@ -8368,19 +8376,19 @@
         <v>0.16</v>
       </c>
       <c r="L13" t="s">
+        <v>131</v>
+      </c>
+      <c r="M13" t="s">
         <v>132</v>
-      </c>
-      <c r="M13" t="s">
-        <v>133</v>
       </c>
       <c r="N13">
         <v>1</v>
       </c>
       <c r="O13" t="s">
+        <v>133</v>
+      </c>
+      <c r="P13" t="s">
         <v>134</v>
-      </c>
-      <c r="P13" t="s">
-        <v>135</v>
       </c>
       <c r="Q13">
         <v>31</v>
@@ -8389,7 +8397,7 @@
         <v>61</v>
       </c>
       <c r="S13" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="T13">
         <v>32</v>
@@ -8398,7 +8406,7 @@
         <v>62</v>
       </c>
       <c r="V13" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="W13">
         <v>180</v>
@@ -8407,7 +8415,7 @@
         <v>50</v>
       </c>
       <c r="Y13" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="Z13">
         <v>31</v>
@@ -8416,7 +8424,7 @@
         <v>61</v>
       </c>
       <c r="AB13" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AC13">
         <v>32</v>
@@ -8428,16 +8436,16 @@
         <v>900</v>
       </c>
       <c r="AF13" t="s">
+        <v>136</v>
+      </c>
+      <c r="AG13" t="s">
         <v>137</v>
       </c>
-      <c r="AG13" t="s">
+      <c r="AH13" t="s">
         <v>138</v>
       </c>
-      <c r="AH13" t="s">
+      <c r="AI13" t="s">
         <v>139</v>
-      </c>
-      <c r="AI13" t="s">
-        <v>140</v>
       </c>
       <c r="AJ13">
         <v>10</v>
@@ -8446,7 +8454,7 @@
         <v>1.5</v>
       </c>
       <c r="AL13" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AM13">
         <v>1.42</v>
@@ -8473,22 +8481,22 @@
         <v>120</v>
       </c>
       <c r="AU13" t="s">
+        <v>141</v>
+      </c>
+      <c r="AV13" t="s">
         <v>142</v>
       </c>
-      <c r="AV13" t="s">
-        <v>143</v>
-      </c>
       <c r="AW13" t="s">
+        <v>136</v>
+      </c>
+      <c r="AX13" t="s">
         <v>137</v>
       </c>
-      <c r="AX13" t="s">
+      <c r="AY13" t="s">
         <v>138</v>
       </c>
-      <c r="AY13" t="s">
+      <c r="AZ13" t="s">
         <v>139</v>
-      </c>
-      <c r="AZ13" t="s">
-        <v>140</v>
       </c>
       <c r="BA13">
         <v>10</v>
@@ -8497,7 +8505,7 @@
         <v>1.5</v>
       </c>
       <c r="BC13" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="BD13">
         <v>20</v>
@@ -8506,31 +8514,31 @@
         <v>1.5</v>
       </c>
       <c r="BF13" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="BG13">
         <v>1.42</v>
       </c>
       <c r="BH13" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="BI13">
         <v>1.42</v>
       </c>
       <c r="BJ13" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="BK13">
         <v>1.42</v>
       </c>
       <c r="BL13" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="BM13">
         <v>1.42</v>
       </c>
       <c r="BN13" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="BO13">
         <v>1.42</v>
@@ -8545,22 +8553,22 @@
         <v>120</v>
       </c>
       <c r="BS13" t="s">
+        <v>141</v>
+      </c>
+      <c r="BT13" t="s">
         <v>142</v>
       </c>
-      <c r="BT13" t="s">
-        <v>143</v>
-      </c>
       <c r="BU13" t="s">
+        <v>136</v>
+      </c>
+      <c r="BV13" t="s">
         <v>137</v>
       </c>
-      <c r="BV13" t="s">
+      <c r="BW13" t="s">
         <v>138</v>
       </c>
-      <c r="BW13" t="s">
+      <c r="BX13" t="s">
         <v>139</v>
-      </c>
-      <c r="BX13" t="s">
-        <v>140</v>
       </c>
       <c r="BY13">
         <v>10</v>
@@ -8569,13 +8577,13 @@
         <v>1.5</v>
       </c>
       <c r="CA13" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="CB13">
         <v>1.42</v>
       </c>
       <c r="CC13" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="CD13">
         <v>1.42</v>
@@ -8611,22 +8619,22 @@
         <v>120</v>
       </c>
       <c r="CO13" t="s">
+        <v>141</v>
+      </c>
+      <c r="CP13" t="s">
         <v>142</v>
       </c>
-      <c r="CP13" t="s">
-        <v>143</v>
-      </c>
       <c r="CQ13" t="s">
+        <v>136</v>
+      </c>
+      <c r="CR13" t="s">
         <v>137</v>
       </c>
-      <c r="CR13" t="s">
+      <c r="CS13" t="s">
         <v>138</v>
       </c>
-      <c r="CS13" t="s">
+      <c r="CT13" t="s">
         <v>139</v>
-      </c>
-      <c r="CT13" t="s">
-        <v>140</v>
       </c>
       <c r="CU13">
         <v>10</v>
@@ -8635,19 +8643,19 @@
         <v>1.5</v>
       </c>
       <c r="CW13" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="CX13">
         <v>1.42</v>
       </c>
       <c r="CY13" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="CZ13">
         <v>1.42</v>
       </c>
       <c r="DA13" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="DB13">
         <v>128</v>
@@ -8689,19 +8697,19 @@
         <v>120</v>
       </c>
       <c r="DO13" t="s">
+        <v>141</v>
+      </c>
+      <c r="DP13" t="s">
         <v>142</v>
       </c>
-      <c r="DP13" t="s">
-        <v>143</v>
-      </c>
       <c r="DQ13" t="s">
+        <v>144</v>
+      </c>
+      <c r="DR13" t="s">
         <v>145</v>
       </c>
-      <c r="DR13" t="s">
+      <c r="DS13" t="s">
         <v>146</v>
-      </c>
-      <c r="DS13" t="s">
-        <v>147</v>
       </c>
       <c r="DT13" t="b">
         <v>1</v>
@@ -8737,16 +8745,16 @@
         <v>1.5</v>
       </c>
       <c r="EE13" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="EF13" t="s">
+        <v>144</v>
+      </c>
+      <c r="EG13" t="s">
         <v>145</v>
       </c>
-      <c r="EG13" t="s">
+      <c r="EH13" t="s">
         <v>146</v>
-      </c>
-      <c r="EH13" t="s">
-        <v>147</v>
       </c>
       <c r="EI13" t="b">
         <v>0</v>
@@ -8782,16 +8790,16 @@
         <v>1.5</v>
       </c>
       <c r="ET13" t="s">
+        <v>147</v>
+      </c>
+      <c r="EU13" t="s">
         <v>148</v>
       </c>
-      <c r="EU13" t="s">
+      <c r="EV13" t="s">
         <v>149</v>
       </c>
-      <c r="EV13" t="s">
+      <c r="EW13" t="s">
         <v>150</v>
-      </c>
-      <c r="EW13" t="s">
-        <v>151</v>
       </c>
       <c r="EX13">
         <v>9.9999999999999995E-7</v>
@@ -8806,13 +8814,13 @@
         <v>25</v>
       </c>
       <c r="FB13" t="s">
+        <v>148</v>
+      </c>
+      <c r="FC13" t="s">
         <v>149</v>
       </c>
-      <c r="FC13" t="s">
+      <c r="FD13" t="s">
         <v>150</v>
-      </c>
-      <c r="FD13" t="s">
-        <v>151</v>
       </c>
       <c r="FE13">
         <v>9.9999999999999995E-7</v>
@@ -8827,16 +8835,16 @@
         <v>25</v>
       </c>
       <c r="FI13" t="s">
+        <v>151</v>
+      </c>
+      <c r="FJ13" t="s">
+        <v>145</v>
+      </c>
+      <c r="FK13" t="s">
         <v>152</v>
       </c>
-      <c r="FJ13" t="s">
-        <v>146</v>
-      </c>
-      <c r="FK13" t="s">
+      <c r="FL13" t="s">
         <v>153</v>
-      </c>
-      <c r="FL13" t="s">
-        <v>154</v>
       </c>
       <c r="FM13">
         <v>200</v>
@@ -8863,7 +8871,7 @@
         <v>20</v>
       </c>
       <c r="FU13" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="FV13">
         <v>532</v>
@@ -8884,19 +8892,19 @@
         <v>75</v>
       </c>
       <c r="GB13" t="s">
+        <v>155</v>
+      </c>
+      <c r="GC13" t="s">
         <v>156</v>
       </c>
-      <c r="GC13" t="s">
+      <c r="GD13" t="s">
+        <v>145</v>
+      </c>
+      <c r="GE13" t="s">
         <v>157</v>
       </c>
-      <c r="GD13" t="s">
-        <v>146</v>
-      </c>
-      <c r="GE13" t="s">
+      <c r="GF13" t="s">
         <v>158</v>
-      </c>
-      <c r="GF13" t="s">
-        <v>159</v>
       </c>
       <c r="GG13">
         <v>25</v>
@@ -8914,7 +8922,7 @@
         <v>250</v>
       </c>
       <c r="GL13" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="GM13">
         <v>0.2</v>
@@ -8926,7 +8934,7 @@
         <v>25</v>
       </c>
       <c r="GP13" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="GQ13">
         <v>0.1</v>
@@ -8941,19 +8949,19 @@
         <v>150</v>
       </c>
       <c r="GU13" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="GV13">
         <v>35</v>
       </c>
       <c r="GW13" t="s">
+        <v>160</v>
+      </c>
+      <c r="GX13" t="s">
         <v>161</v>
       </c>
-      <c r="GX13" t="s">
+      <c r="GY13" t="s">
         <v>162</v>
-      </c>
-      <c r="GY13" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="14" spans="1:207" x14ac:dyDescent="0.3">
@@ -8979,8 +8987,9 @@
       <c r="G14" t="s">
         <v>130</v>
       </c>
-      <c r="H14" t="s">
-        <v>131</v>
+      <c r="H14">
+        <f t="shared" si="1"/>
+        <v>6.25</v>
       </c>
       <c r="I14">
         <v>0.16</v>
@@ -8992,19 +9001,19 @@
         <v>0.16</v>
       </c>
       <c r="L14" t="s">
+        <v>131</v>
+      </c>
+      <c r="M14" t="s">
         <v>132</v>
-      </c>
-      <c r="M14" t="s">
-        <v>133</v>
       </c>
       <c r="N14">
         <v>1</v>
       </c>
       <c r="O14" t="s">
+        <v>133</v>
+      </c>
+      <c r="P14" t="s">
         <v>134</v>
-      </c>
-      <c r="P14" t="s">
-        <v>135</v>
       </c>
       <c r="Q14">
         <v>31</v>
@@ -9013,7 +9022,7 @@
         <v>61</v>
       </c>
       <c r="S14" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="T14">
         <v>32</v>
@@ -9022,7 +9031,7 @@
         <v>62</v>
       </c>
       <c r="V14" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="W14">
         <v>180</v>
@@ -9031,7 +9040,7 @@
         <v>50</v>
       </c>
       <c r="Y14" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="Z14">
         <v>31</v>
@@ -9040,7 +9049,7 @@
         <v>61</v>
       </c>
       <c r="AB14" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AC14">
         <v>32</v>
@@ -9052,16 +9061,16 @@
         <v>900</v>
       </c>
       <c r="AF14" t="s">
+        <v>136</v>
+      </c>
+      <c r="AG14" t="s">
         <v>137</v>
       </c>
-      <c r="AG14" t="s">
+      <c r="AH14" t="s">
         <v>138</v>
       </c>
-      <c r="AH14" t="s">
+      <c r="AI14" t="s">
         <v>139</v>
-      </c>
-      <c r="AI14" t="s">
-        <v>140</v>
       </c>
       <c r="AJ14">
         <v>10</v>
@@ -9070,7 +9079,7 @@
         <v>1.5</v>
       </c>
       <c r="AL14" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AM14">
         <v>1.42</v>
@@ -9097,22 +9106,22 @@
         <v>120</v>
       </c>
       <c r="AU14" t="s">
+        <v>141</v>
+      </c>
+      <c r="AV14" t="s">
         <v>142</v>
       </c>
-      <c r="AV14" t="s">
-        <v>143</v>
-      </c>
       <c r="AW14" t="s">
+        <v>136</v>
+      </c>
+      <c r="AX14" t="s">
         <v>137</v>
       </c>
-      <c r="AX14" t="s">
+      <c r="AY14" t="s">
         <v>138</v>
       </c>
-      <c r="AY14" t="s">
+      <c r="AZ14" t="s">
         <v>139</v>
-      </c>
-      <c r="AZ14" t="s">
-        <v>140</v>
       </c>
       <c r="BA14">
         <v>10</v>
@@ -9121,7 +9130,7 @@
         <v>1.5</v>
       </c>
       <c r="BC14" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="BD14">
         <v>20</v>
@@ -9130,31 +9139,31 @@
         <v>1.5</v>
       </c>
       <c r="BF14" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="BG14">
         <v>1.42</v>
       </c>
       <c r="BH14" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="BI14">
         <v>1.42</v>
       </c>
       <c r="BJ14" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="BK14">
         <v>1.42</v>
       </c>
       <c r="BL14" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="BM14">
         <v>1.42</v>
       </c>
       <c r="BN14" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="BO14">
         <v>1.42</v>
@@ -9169,22 +9178,22 @@
         <v>120</v>
       </c>
       <c r="BS14" t="s">
+        <v>141</v>
+      </c>
+      <c r="BT14" t="s">
         <v>142</v>
       </c>
-      <c r="BT14" t="s">
-        <v>143</v>
-      </c>
       <c r="BU14" t="s">
+        <v>136</v>
+      </c>
+      <c r="BV14" t="s">
         <v>137</v>
       </c>
-      <c r="BV14" t="s">
+      <c r="BW14" t="s">
         <v>138</v>
       </c>
-      <c r="BW14" t="s">
+      <c r="BX14" t="s">
         <v>139</v>
-      </c>
-      <c r="BX14" t="s">
-        <v>140</v>
       </c>
       <c r="BY14">
         <v>10</v>
@@ -9193,13 +9202,13 @@
         <v>1.5</v>
       </c>
       <c r="CA14" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="CB14">
         <v>1.42</v>
       </c>
       <c r="CC14" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="CD14">
         <v>1.42</v>
@@ -9235,22 +9244,22 @@
         <v>120</v>
       </c>
       <c r="CO14" t="s">
+        <v>141</v>
+      </c>
+      <c r="CP14" t="s">
         <v>142</v>
       </c>
-      <c r="CP14" t="s">
-        <v>143</v>
-      </c>
       <c r="CQ14" t="s">
+        <v>136</v>
+      </c>
+      <c r="CR14" t="s">
         <v>137</v>
       </c>
-      <c r="CR14" t="s">
+      <c r="CS14" t="s">
         <v>138</v>
       </c>
-      <c r="CS14" t="s">
+      <c r="CT14" t="s">
         <v>139</v>
-      </c>
-      <c r="CT14" t="s">
-        <v>140</v>
       </c>
       <c r="CU14">
         <v>10</v>
@@ -9259,19 +9268,19 @@
         <v>1.5</v>
       </c>
       <c r="CW14" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="CX14">
         <v>1.42</v>
       </c>
       <c r="CY14" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="CZ14">
         <v>1.42</v>
       </c>
       <c r="DA14" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="DB14">
         <v>128</v>
@@ -9313,19 +9322,19 @@
         <v>120</v>
       </c>
       <c r="DO14" t="s">
+        <v>141</v>
+      </c>
+      <c r="DP14" t="s">
         <v>142</v>
       </c>
-      <c r="DP14" t="s">
-        <v>143</v>
-      </c>
       <c r="DQ14" t="s">
+        <v>144</v>
+      </c>
+      <c r="DR14" t="s">
         <v>145</v>
       </c>
-      <c r="DR14" t="s">
+      <c r="DS14" t="s">
         <v>146</v>
-      </c>
-      <c r="DS14" t="s">
-        <v>147</v>
       </c>
       <c r="DT14" t="b">
         <v>1</v>
@@ -9361,16 +9370,16 @@
         <v>1.5</v>
       </c>
       <c r="EE14" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="EF14" t="s">
+        <v>144</v>
+      </c>
+      <c r="EG14" t="s">
         <v>145</v>
       </c>
-      <c r="EG14" t="s">
+      <c r="EH14" t="s">
         <v>146</v>
-      </c>
-      <c r="EH14" t="s">
-        <v>147</v>
       </c>
       <c r="EI14" t="b">
         <v>0</v>
@@ -9406,16 +9415,16 @@
         <v>1.5</v>
       </c>
       <c r="ET14" t="s">
+        <v>147</v>
+      </c>
+      <c r="EU14" t="s">
         <v>148</v>
       </c>
-      <c r="EU14" t="s">
+      <c r="EV14" t="s">
         <v>149</v>
       </c>
-      <c r="EV14" t="s">
+      <c r="EW14" t="s">
         <v>150</v>
-      </c>
-      <c r="EW14" t="s">
-        <v>151</v>
       </c>
       <c r="EX14">
         <v>9.9999999999999995E-7</v>
@@ -9430,13 +9439,13 @@
         <v>25</v>
       </c>
       <c r="FB14" t="s">
+        <v>148</v>
+      </c>
+      <c r="FC14" t="s">
         <v>149</v>
       </c>
-      <c r="FC14" t="s">
+      <c r="FD14" t="s">
         <v>150</v>
-      </c>
-      <c r="FD14" t="s">
-        <v>151</v>
       </c>
       <c r="FE14">
         <v>9.9999999999999995E-7</v>
@@ -9451,16 +9460,16 @@
         <v>25</v>
       </c>
       <c r="FI14" t="s">
+        <v>151</v>
+      </c>
+      <c r="FJ14" t="s">
+        <v>145</v>
+      </c>
+      <c r="FK14" t="s">
         <v>152</v>
       </c>
-      <c r="FJ14" t="s">
-        <v>146</v>
-      </c>
-      <c r="FK14" t="s">
+      <c r="FL14" t="s">
         <v>153</v>
-      </c>
-      <c r="FL14" t="s">
-        <v>154</v>
       </c>
       <c r="FM14">
         <v>200</v>
@@ -9487,7 +9496,7 @@
         <v>20</v>
       </c>
       <c r="FU14" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="FV14">
         <v>532</v>
@@ -9508,19 +9517,19 @@
         <v>75</v>
       </c>
       <c r="GB14" t="s">
+        <v>155</v>
+      </c>
+      <c r="GC14" t="s">
         <v>156</v>
       </c>
-      <c r="GC14" t="s">
+      <c r="GD14" t="s">
+        <v>145</v>
+      </c>
+      <c r="GE14" t="s">
         <v>157</v>
       </c>
-      <c r="GD14" t="s">
-        <v>146</v>
-      </c>
-      <c r="GE14" t="s">
+      <c r="GF14" t="s">
         <v>158</v>
-      </c>
-      <c r="GF14" t="s">
-        <v>159</v>
       </c>
       <c r="GG14">
         <v>25</v>
@@ -9538,7 +9547,7 @@
         <v>250</v>
       </c>
       <c r="GL14" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="GM14">
         <v>0.2</v>
@@ -9550,7 +9559,7 @@
         <v>25</v>
       </c>
       <c r="GP14" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="GQ14">
         <v>0.1</v>
@@ -9565,19 +9574,19 @@
         <v>150</v>
       </c>
       <c r="GU14" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="GV14">
         <v>35</v>
       </c>
       <c r="GW14" t="s">
+        <v>160</v>
+      </c>
+      <c r="GX14" t="s">
         <v>161</v>
       </c>
-      <c r="GX14" t="s">
+      <c r="GY14" t="s">
         <v>162</v>
-      </c>
-      <c r="GY14" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="15" spans="1:207" x14ac:dyDescent="0.3">
@@ -9603,8 +9612,9 @@
       <c r="G15" t="s">
         <v>130</v>
       </c>
-      <c r="H15" t="s">
-        <v>131</v>
+      <c r="H15">
+        <f t="shared" si="1"/>
+        <v>6.25</v>
       </c>
       <c r="I15">
         <v>0.16</v>
@@ -9616,19 +9626,19 @@
         <v>0.16</v>
       </c>
       <c r="L15" t="s">
+        <v>131</v>
+      </c>
+      <c r="M15" t="s">
         <v>132</v>
-      </c>
-      <c r="M15" t="s">
-        <v>133</v>
       </c>
       <c r="N15">
         <v>1</v>
       </c>
       <c r="O15" t="s">
+        <v>133</v>
+      </c>
+      <c r="P15" t="s">
         <v>134</v>
-      </c>
-      <c r="P15" t="s">
-        <v>135</v>
       </c>
       <c r="Q15">
         <v>31</v>
@@ -9637,7 +9647,7 @@
         <v>61</v>
       </c>
       <c r="S15" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="T15">
         <v>32</v>
@@ -9646,7 +9656,7 @@
         <v>62</v>
       </c>
       <c r="V15" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="W15">
         <v>180</v>
@@ -9655,7 +9665,7 @@
         <v>50</v>
       </c>
       <c r="Y15" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="Z15">
         <v>31</v>
@@ -9664,7 +9674,7 @@
         <v>61</v>
       </c>
       <c r="AB15" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AC15">
         <v>32</v>
@@ -9676,16 +9686,16 @@
         <v>900</v>
       </c>
       <c r="AF15" t="s">
+        <v>136</v>
+      </c>
+      <c r="AG15" t="s">
         <v>137</v>
       </c>
-      <c r="AG15" t="s">
+      <c r="AH15" t="s">
         <v>138</v>
       </c>
-      <c r="AH15" t="s">
+      <c r="AI15" t="s">
         <v>139</v>
-      </c>
-      <c r="AI15" t="s">
-        <v>140</v>
       </c>
       <c r="AJ15">
         <v>10</v>
@@ -9694,7 +9704,7 @@
         <v>1.5</v>
       </c>
       <c r="AL15" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AM15">
         <v>1.42</v>
@@ -9721,22 +9731,22 @@
         <v>120</v>
       </c>
       <c r="AU15" t="s">
+        <v>141</v>
+      </c>
+      <c r="AV15" t="s">
         <v>142</v>
       </c>
-      <c r="AV15" t="s">
-        <v>143</v>
-      </c>
       <c r="AW15" t="s">
+        <v>136</v>
+      </c>
+      <c r="AX15" t="s">
         <v>137</v>
       </c>
-      <c r="AX15" t="s">
+      <c r="AY15" t="s">
         <v>138</v>
       </c>
-      <c r="AY15" t="s">
+      <c r="AZ15" t="s">
         <v>139</v>
-      </c>
-      <c r="AZ15" t="s">
-        <v>140</v>
       </c>
       <c r="BA15">
         <v>10</v>
@@ -9745,7 +9755,7 @@
         <v>1.5</v>
       </c>
       <c r="BC15" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="BD15">
         <v>20</v>
@@ -9754,31 +9764,31 @@
         <v>1.5</v>
       </c>
       <c r="BF15" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="BG15">
         <v>1.42</v>
       </c>
       <c r="BH15" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="BI15">
         <v>1.42</v>
       </c>
       <c r="BJ15" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="BK15">
         <v>1.42</v>
       </c>
       <c r="BL15" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="BM15">
         <v>1.42</v>
       </c>
       <c r="BN15" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="BO15">
         <v>1.42</v>
@@ -9793,22 +9803,22 @@
         <v>120</v>
       </c>
       <c r="BS15" t="s">
+        <v>141</v>
+      </c>
+      <c r="BT15" t="s">
         <v>142</v>
       </c>
-      <c r="BT15" t="s">
-        <v>143</v>
-      </c>
       <c r="BU15" t="s">
+        <v>136</v>
+      </c>
+      <c r="BV15" t="s">
         <v>137</v>
       </c>
-      <c r="BV15" t="s">
+      <c r="BW15" t="s">
         <v>138</v>
       </c>
-      <c r="BW15" t="s">
+      <c r="BX15" t="s">
         <v>139</v>
-      </c>
-      <c r="BX15" t="s">
-        <v>140</v>
       </c>
       <c r="BY15">
         <v>10</v>
@@ -9817,13 +9827,13 @@
         <v>1.5</v>
       </c>
       <c r="CA15" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="CB15">
         <v>1.42</v>
       </c>
       <c r="CC15" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="CD15">
         <v>1.42</v>
@@ -9859,22 +9869,22 @@
         <v>120</v>
       </c>
       <c r="CO15" t="s">
+        <v>141</v>
+      </c>
+      <c r="CP15" t="s">
         <v>142</v>
       </c>
-      <c r="CP15" t="s">
-        <v>143</v>
-      </c>
       <c r="CQ15" t="s">
+        <v>136</v>
+      </c>
+      <c r="CR15" t="s">
         <v>137</v>
       </c>
-      <c r="CR15" t="s">
+      <c r="CS15" t="s">
         <v>138</v>
       </c>
-      <c r="CS15" t="s">
+      <c r="CT15" t="s">
         <v>139</v>
-      </c>
-      <c r="CT15" t="s">
-        <v>140</v>
       </c>
       <c r="CU15">
         <v>10</v>
@@ -9883,19 +9893,19 @@
         <v>1.5</v>
       </c>
       <c r="CW15" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="CX15">
         <v>1.42</v>
       </c>
       <c r="CY15" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="CZ15">
         <v>1.42</v>
       </c>
       <c r="DA15" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="DB15">
         <v>128</v>
@@ -9937,19 +9947,19 @@
         <v>120</v>
       </c>
       <c r="DO15" t="s">
+        <v>141</v>
+      </c>
+      <c r="DP15" t="s">
         <v>142</v>
       </c>
-      <c r="DP15" t="s">
-        <v>143</v>
-      </c>
       <c r="DQ15" t="s">
+        <v>144</v>
+      </c>
+      <c r="DR15" t="s">
         <v>145</v>
       </c>
-      <c r="DR15" t="s">
+      <c r="DS15" t="s">
         <v>146</v>
-      </c>
-      <c r="DS15" t="s">
-        <v>147</v>
       </c>
       <c r="DT15" t="b">
         <v>1</v>
@@ -9985,16 +9995,16 @@
         <v>1.5</v>
       </c>
       <c r="EE15" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="EF15" t="s">
+        <v>144</v>
+      </c>
+      <c r="EG15" t="s">
         <v>145</v>
       </c>
-      <c r="EG15" t="s">
+      <c r="EH15" t="s">
         <v>146</v>
-      </c>
-      <c r="EH15" t="s">
-        <v>147</v>
       </c>
       <c r="EI15" t="b">
         <v>0</v>
@@ -10030,16 +10040,16 @@
         <v>1.5</v>
       </c>
       <c r="ET15" t="s">
+        <v>147</v>
+      </c>
+      <c r="EU15" t="s">
         <v>148</v>
       </c>
-      <c r="EU15" t="s">
+      <c r="EV15" t="s">
         <v>149</v>
       </c>
-      <c r="EV15" t="s">
+      <c r="EW15" t="s">
         <v>150</v>
-      </c>
-      <c r="EW15" t="s">
-        <v>151</v>
       </c>
       <c r="EX15">
         <v>9.9999999999999995E-7</v>
@@ -10054,13 +10064,13 @@
         <v>25</v>
       </c>
       <c r="FB15" t="s">
+        <v>148</v>
+      </c>
+      <c r="FC15" t="s">
         <v>149</v>
       </c>
-      <c r="FC15" t="s">
+      <c r="FD15" t="s">
         <v>150</v>
-      </c>
-      <c r="FD15" t="s">
-        <v>151</v>
       </c>
       <c r="FE15">
         <v>9.9999999999999995E-7</v>
@@ -10075,16 +10085,16 @@
         <v>25</v>
       </c>
       <c r="FI15" t="s">
+        <v>151</v>
+      </c>
+      <c r="FJ15" t="s">
+        <v>145</v>
+      </c>
+      <c r="FK15" t="s">
         <v>152</v>
       </c>
-      <c r="FJ15" t="s">
-        <v>146</v>
-      </c>
-      <c r="FK15" t="s">
+      <c r="FL15" t="s">
         <v>153</v>
-      </c>
-      <c r="FL15" t="s">
-        <v>154</v>
       </c>
       <c r="FM15">
         <v>200</v>
@@ -10111,7 +10121,7 @@
         <v>20</v>
       </c>
       <c r="FU15" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="FV15">
         <v>532</v>
@@ -10132,19 +10142,19 @@
         <v>75</v>
       </c>
       <c r="GB15" t="s">
+        <v>155</v>
+      </c>
+      <c r="GC15" t="s">
         <v>156</v>
       </c>
-      <c r="GC15" t="s">
+      <c r="GD15" t="s">
+        <v>145</v>
+      </c>
+      <c r="GE15" t="s">
         <v>157</v>
       </c>
-      <c r="GD15" t="s">
-        <v>146</v>
-      </c>
-      <c r="GE15" t="s">
+      <c r="GF15" t="s">
         <v>158</v>
-      </c>
-      <c r="GF15" t="s">
-        <v>159</v>
       </c>
       <c r="GG15">
         <v>25</v>
@@ -10162,7 +10172,7 @@
         <v>250</v>
       </c>
       <c r="GL15" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="GM15">
         <v>0.2</v>
@@ -10174,7 +10184,7 @@
         <v>25</v>
       </c>
       <c r="GP15" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="GQ15">
         <v>0.1</v>
@@ -10189,19 +10199,19 @@
         <v>150</v>
       </c>
       <c r="GU15" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="GV15">
         <v>35</v>
       </c>
       <c r="GW15" t="s">
+        <v>160</v>
+      </c>
+      <c r="GX15" t="s">
         <v>161</v>
       </c>
-      <c r="GX15" t="s">
+      <c r="GY15" t="s">
         <v>162</v>
-      </c>
-      <c r="GY15" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="16" spans="1:207" x14ac:dyDescent="0.3">
@@ -10227,8 +10237,9 @@
       <c r="G16" t="s">
         <v>130</v>
       </c>
-      <c r="H16" t="s">
-        <v>131</v>
+      <c r="H16">
+        <f t="shared" si="1"/>
+        <v>6.25</v>
       </c>
       <c r="I16">
         <v>0.16</v>
@@ -10240,19 +10251,19 @@
         <v>0.16</v>
       </c>
       <c r="L16" t="s">
+        <v>131</v>
+      </c>
+      <c r="M16" t="s">
         <v>132</v>
-      </c>
-      <c r="M16" t="s">
-        <v>133</v>
       </c>
       <c r="N16">
         <v>1</v>
       </c>
       <c r="O16" t="s">
+        <v>133</v>
+      </c>
+      <c r="P16" t="s">
         <v>134</v>
-      </c>
-      <c r="P16" t="s">
-        <v>135</v>
       </c>
       <c r="Q16">
         <v>31</v>
@@ -10261,7 +10272,7 @@
         <v>61</v>
       </c>
       <c r="S16" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="T16">
         <v>32</v>
@@ -10270,7 +10281,7 @@
         <v>62</v>
       </c>
       <c r="V16" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="W16">
         <v>180</v>
@@ -10279,7 +10290,7 @@
         <v>50</v>
       </c>
       <c r="Y16" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="Z16">
         <v>31</v>
@@ -10288,7 +10299,7 @@
         <v>61</v>
       </c>
       <c r="AB16" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AC16">
         <v>32</v>
@@ -10300,16 +10311,16 @@
         <v>900</v>
       </c>
       <c r="AF16" t="s">
+        <v>136</v>
+      </c>
+      <c r="AG16" t="s">
         <v>137</v>
       </c>
-      <c r="AG16" t="s">
+      <c r="AH16" t="s">
         <v>138</v>
       </c>
-      <c r="AH16" t="s">
+      <c r="AI16" t="s">
         <v>139</v>
-      </c>
-      <c r="AI16" t="s">
-        <v>140</v>
       </c>
       <c r="AJ16">
         <v>10</v>
@@ -10318,7 +10329,7 @@
         <v>1.5</v>
       </c>
       <c r="AL16" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AM16">
         <v>1.42</v>
@@ -10345,22 +10356,22 @@
         <v>120</v>
       </c>
       <c r="AU16" t="s">
+        <v>141</v>
+      </c>
+      <c r="AV16" t="s">
         <v>142</v>
       </c>
-      <c r="AV16" t="s">
-        <v>143</v>
-      </c>
       <c r="AW16" t="s">
+        <v>136</v>
+      </c>
+      <c r="AX16" t="s">
         <v>137</v>
       </c>
-      <c r="AX16" t="s">
+      <c r="AY16" t="s">
         <v>138</v>
       </c>
-      <c r="AY16" t="s">
+      <c r="AZ16" t="s">
         <v>139</v>
-      </c>
-      <c r="AZ16" t="s">
-        <v>140</v>
       </c>
       <c r="BA16">
         <v>10</v>
@@ -10369,7 +10380,7 @@
         <v>1.5</v>
       </c>
       <c r="BC16" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="BD16">
         <v>20</v>
@@ -10378,31 +10389,31 @@
         <v>1.5</v>
       </c>
       <c r="BF16" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="BG16">
         <v>1.42</v>
       </c>
       <c r="BH16" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="BI16">
         <v>1.42</v>
       </c>
       <c r="BJ16" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="BK16">
         <v>1.42</v>
       </c>
       <c r="BL16" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="BM16">
         <v>1.42</v>
       </c>
       <c r="BN16" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="BO16">
         <v>1.42</v>
@@ -10417,22 +10428,22 @@
         <v>120</v>
       </c>
       <c r="BS16" t="s">
+        <v>141</v>
+      </c>
+      <c r="BT16" t="s">
         <v>142</v>
       </c>
-      <c r="BT16" t="s">
-        <v>143</v>
-      </c>
       <c r="BU16" t="s">
+        <v>136</v>
+      </c>
+      <c r="BV16" t="s">
         <v>137</v>
       </c>
-      <c r="BV16" t="s">
+      <c r="BW16" t="s">
         <v>138</v>
       </c>
-      <c r="BW16" t="s">
+      <c r="BX16" t="s">
         <v>139</v>
-      </c>
-      <c r="BX16" t="s">
-        <v>140</v>
       </c>
       <c r="BY16">
         <v>10</v>
@@ -10441,13 +10452,13 @@
         <v>1.5</v>
       </c>
       <c r="CA16" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="CB16">
         <v>1.42</v>
       </c>
       <c r="CC16" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="CD16">
         <v>1.42</v>
@@ -10483,22 +10494,22 @@
         <v>120</v>
       </c>
       <c r="CO16" t="s">
+        <v>141</v>
+      </c>
+      <c r="CP16" t="s">
         <v>142</v>
       </c>
-      <c r="CP16" t="s">
-        <v>143</v>
-      </c>
       <c r="CQ16" t="s">
+        <v>136</v>
+      </c>
+      <c r="CR16" t="s">
         <v>137</v>
       </c>
-      <c r="CR16" t="s">
+      <c r="CS16" t="s">
         <v>138</v>
       </c>
-      <c r="CS16" t="s">
+      <c r="CT16" t="s">
         <v>139</v>
-      </c>
-      <c r="CT16" t="s">
-        <v>140</v>
       </c>
       <c r="CU16">
         <v>10</v>
@@ -10507,19 +10518,19 @@
         <v>1.5</v>
       </c>
       <c r="CW16" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="CX16">
         <v>1.42</v>
       </c>
       <c r="CY16" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="CZ16">
         <v>1.42</v>
       </c>
       <c r="DA16" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="DB16">
         <v>128</v>
@@ -10561,19 +10572,19 @@
         <v>120</v>
       </c>
       <c r="DO16" t="s">
+        <v>141</v>
+      </c>
+      <c r="DP16" t="s">
         <v>142</v>
       </c>
-      <c r="DP16" t="s">
-        <v>143</v>
-      </c>
       <c r="DQ16" t="s">
+        <v>144</v>
+      </c>
+      <c r="DR16" t="s">
         <v>145</v>
       </c>
-      <c r="DR16" t="s">
+      <c r="DS16" t="s">
         <v>146</v>
-      </c>
-      <c r="DS16" t="s">
-        <v>147</v>
       </c>
       <c r="DT16" t="b">
         <v>1</v>
@@ -10609,16 +10620,16 @@
         <v>1.5</v>
       </c>
       <c r="EE16" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="EF16" t="s">
+        <v>144</v>
+      </c>
+      <c r="EG16" t="s">
         <v>145</v>
       </c>
-      <c r="EG16" t="s">
+      <c r="EH16" t="s">
         <v>146</v>
-      </c>
-      <c r="EH16" t="s">
-        <v>147</v>
       </c>
       <c r="EI16" t="b">
         <v>0</v>
@@ -10654,16 +10665,16 @@
         <v>1.5</v>
       </c>
       <c r="ET16" t="s">
+        <v>147</v>
+      </c>
+      <c r="EU16" t="s">
         <v>148</v>
       </c>
-      <c r="EU16" t="s">
+      <c r="EV16" t="s">
         <v>149</v>
       </c>
-      <c r="EV16" t="s">
+      <c r="EW16" t="s">
         <v>150</v>
-      </c>
-      <c r="EW16" t="s">
-        <v>151</v>
       </c>
       <c r="EX16">
         <v>9.9999999999999995E-7</v>
@@ -10678,13 +10689,13 @@
         <v>25</v>
       </c>
       <c r="FB16" t="s">
+        <v>148</v>
+      </c>
+      <c r="FC16" t="s">
         <v>149</v>
       </c>
-      <c r="FC16" t="s">
+      <c r="FD16" t="s">
         <v>150</v>
-      </c>
-      <c r="FD16" t="s">
-        <v>151</v>
       </c>
       <c r="FE16">
         <v>9.9999999999999995E-7</v>
@@ -10699,16 +10710,16 @@
         <v>25</v>
       </c>
       <c r="FI16" t="s">
+        <v>151</v>
+      </c>
+      <c r="FJ16" t="s">
+        <v>145</v>
+      </c>
+      <c r="FK16" t="s">
         <v>152</v>
       </c>
-      <c r="FJ16" t="s">
-        <v>146</v>
-      </c>
-      <c r="FK16" t="s">
+      <c r="FL16" t="s">
         <v>153</v>
-      </c>
-      <c r="FL16" t="s">
-        <v>154</v>
       </c>
       <c r="FM16">
         <v>200</v>
@@ -10735,7 +10746,7 @@
         <v>20</v>
       </c>
       <c r="FU16" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="FV16">
         <v>532</v>
@@ -10756,19 +10767,19 @@
         <v>75</v>
       </c>
       <c r="GB16" t="s">
+        <v>155</v>
+      </c>
+      <c r="GC16" t="s">
         <v>156</v>
       </c>
-      <c r="GC16" t="s">
+      <c r="GD16" t="s">
+        <v>145</v>
+      </c>
+      <c r="GE16" t="s">
         <v>157</v>
       </c>
-      <c r="GD16" t="s">
-        <v>146</v>
-      </c>
-      <c r="GE16" t="s">
+      <c r="GF16" t="s">
         <v>158</v>
-      </c>
-      <c r="GF16" t="s">
-        <v>159</v>
       </c>
       <c r="GG16">
         <v>25</v>
@@ -10786,7 +10797,7 @@
         <v>250</v>
       </c>
       <c r="GL16" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="GM16">
         <v>0.2</v>
@@ -10798,7 +10809,7 @@
         <v>25</v>
       </c>
       <c r="GP16" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="GQ16">
         <v>0.1</v>
@@ -10813,19 +10824,19 @@
         <v>150</v>
       </c>
       <c r="GU16" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="GV16">
         <v>35</v>
       </c>
       <c r="GW16" t="s">
+        <v>160</v>
+      </c>
+      <c r="GX16" t="s">
         <v>161</v>
       </c>
-      <c r="GX16" t="s">
+      <c r="GY16" t="s">
         <v>162</v>
-      </c>
-      <c r="GY16" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="17" spans="1:207" x14ac:dyDescent="0.3">
@@ -10851,8 +10862,9 @@
       <c r="G17" t="s">
         <v>130</v>
       </c>
-      <c r="H17" t="s">
-        <v>131</v>
+      <c r="H17">
+        <f t="shared" si="1"/>
+        <v>6.25</v>
       </c>
       <c r="I17">
         <v>0.16</v>
@@ -10864,19 +10876,19 @@
         <v>0.16</v>
       </c>
       <c r="L17" t="s">
+        <v>131</v>
+      </c>
+      <c r="M17" t="s">
         <v>132</v>
-      </c>
-      <c r="M17" t="s">
-        <v>133</v>
       </c>
       <c r="N17">
         <v>1</v>
       </c>
       <c r="O17" t="s">
+        <v>133</v>
+      </c>
+      <c r="P17" t="s">
         <v>134</v>
-      </c>
-      <c r="P17" t="s">
-        <v>135</v>
       </c>
       <c r="Q17">
         <v>31</v>
@@ -10885,7 +10897,7 @@
         <v>61</v>
       </c>
       <c r="S17" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="T17">
         <v>32</v>
@@ -10894,7 +10906,7 @@
         <v>62</v>
       </c>
       <c r="V17" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="W17">
         <v>180</v>
@@ -10903,7 +10915,7 @@
         <v>50</v>
       </c>
       <c r="Y17" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="Z17">
         <v>31</v>
@@ -10912,7 +10924,7 @@
         <v>61</v>
       </c>
       <c r="AB17" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AC17">
         <v>32</v>
@@ -10924,16 +10936,16 @@
         <v>900</v>
       </c>
       <c r="AF17" t="s">
+        <v>136</v>
+      </c>
+      <c r="AG17" t="s">
         <v>137</v>
       </c>
-      <c r="AG17" t="s">
+      <c r="AH17" t="s">
         <v>138</v>
       </c>
-      <c r="AH17" t="s">
+      <c r="AI17" t="s">
         <v>139</v>
-      </c>
-      <c r="AI17" t="s">
-        <v>140</v>
       </c>
       <c r="AJ17">
         <v>10</v>
@@ -10942,7 +10954,7 @@
         <v>1.5</v>
       </c>
       <c r="AL17" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AM17">
         <v>1.42</v>
@@ -10969,22 +10981,22 @@
         <v>120</v>
       </c>
       <c r="AU17" t="s">
+        <v>141</v>
+      </c>
+      <c r="AV17" t="s">
         <v>142</v>
       </c>
-      <c r="AV17" t="s">
-        <v>143</v>
-      </c>
       <c r="AW17" t="s">
+        <v>136</v>
+      </c>
+      <c r="AX17" t="s">
         <v>137</v>
       </c>
-      <c r="AX17" t="s">
+      <c r="AY17" t="s">
         <v>138</v>
       </c>
-      <c r="AY17" t="s">
+      <c r="AZ17" t="s">
         <v>139</v>
-      </c>
-      <c r="AZ17" t="s">
-        <v>140</v>
       </c>
       <c r="BA17">
         <v>10</v>
@@ -10993,7 +11005,7 @@
         <v>1.5</v>
       </c>
       <c r="BC17" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="BD17">
         <v>20</v>
@@ -11002,31 +11014,31 @@
         <v>1.5</v>
       </c>
       <c r="BF17" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="BG17">
         <v>1.42</v>
       </c>
       <c r="BH17" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="BI17">
         <v>1.42</v>
       </c>
       <c r="BJ17" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="BK17">
         <v>1.42</v>
       </c>
       <c r="BL17" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="BM17">
         <v>1.42</v>
       </c>
       <c r="BN17" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="BO17">
         <v>1.42</v>
@@ -11041,22 +11053,22 @@
         <v>120</v>
       </c>
       <c r="BS17" t="s">
+        <v>141</v>
+      </c>
+      <c r="BT17" t="s">
         <v>142</v>
       </c>
-      <c r="BT17" t="s">
-        <v>143</v>
-      </c>
       <c r="BU17" t="s">
+        <v>136</v>
+      </c>
+      <c r="BV17" t="s">
         <v>137</v>
       </c>
-      <c r="BV17" t="s">
+      <c r="BW17" t="s">
         <v>138</v>
       </c>
-      <c r="BW17" t="s">
+      <c r="BX17" t="s">
         <v>139</v>
-      </c>
-      <c r="BX17" t="s">
-        <v>140</v>
       </c>
       <c r="BY17">
         <v>10</v>
@@ -11065,13 +11077,13 @@
         <v>1.5</v>
       </c>
       <c r="CA17" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="CB17">
         <v>1.42</v>
       </c>
       <c r="CC17" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="CD17">
         <v>1.42</v>
@@ -11107,22 +11119,22 @@
         <v>120</v>
       </c>
       <c r="CO17" t="s">
+        <v>141</v>
+      </c>
+      <c r="CP17" t="s">
         <v>142</v>
       </c>
-      <c r="CP17" t="s">
-        <v>143</v>
-      </c>
       <c r="CQ17" t="s">
+        <v>136</v>
+      </c>
+      <c r="CR17" t="s">
         <v>137</v>
       </c>
-      <c r="CR17" t="s">
+      <c r="CS17" t="s">
         <v>138</v>
       </c>
-      <c r="CS17" t="s">
+      <c r="CT17" t="s">
         <v>139</v>
-      </c>
-      <c r="CT17" t="s">
-        <v>140</v>
       </c>
       <c r="CU17">
         <v>10</v>
@@ -11131,19 +11143,19 @@
         <v>1.5</v>
       </c>
       <c r="CW17" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="CX17">
         <v>1.42</v>
       </c>
       <c r="CY17" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="CZ17">
         <v>1.42</v>
       </c>
       <c r="DA17" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="DB17">
         <v>128</v>
@@ -11185,19 +11197,19 @@
         <v>120</v>
       </c>
       <c r="DO17" t="s">
+        <v>141</v>
+      </c>
+      <c r="DP17" t="s">
         <v>142</v>
       </c>
-      <c r="DP17" t="s">
-        <v>143</v>
-      </c>
       <c r="DQ17" t="s">
+        <v>144</v>
+      </c>
+      <c r="DR17" t="s">
         <v>145</v>
       </c>
-      <c r="DR17" t="s">
+      <c r="DS17" t="s">
         <v>146</v>
-      </c>
-      <c r="DS17" t="s">
-        <v>147</v>
       </c>
       <c r="DT17" t="b">
         <v>1</v>
@@ -11233,16 +11245,16 @@
         <v>1.5</v>
       </c>
       <c r="EE17" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="EF17" t="s">
+        <v>144</v>
+      </c>
+      <c r="EG17" t="s">
         <v>145</v>
       </c>
-      <c r="EG17" t="s">
+      <c r="EH17" t="s">
         <v>146</v>
-      </c>
-      <c r="EH17" t="s">
-        <v>147</v>
       </c>
       <c r="EI17" t="b">
         <v>0</v>
@@ -11278,16 +11290,16 @@
         <v>1.5</v>
       </c>
       <c r="ET17" t="s">
+        <v>147</v>
+      </c>
+      <c r="EU17" t="s">
         <v>148</v>
       </c>
-      <c r="EU17" t="s">
+      <c r="EV17" t="s">
         <v>149</v>
       </c>
-      <c r="EV17" t="s">
+      <c r="EW17" t="s">
         <v>150</v>
-      </c>
-      <c r="EW17" t="s">
-        <v>151</v>
       </c>
       <c r="EX17">
         <v>9.9999999999999995E-7</v>
@@ -11302,13 +11314,13 @@
         <v>25</v>
       </c>
       <c r="FB17" t="s">
+        <v>148</v>
+      </c>
+      <c r="FC17" t="s">
         <v>149</v>
       </c>
-      <c r="FC17" t="s">
+      <c r="FD17" t="s">
         <v>150</v>
-      </c>
-      <c r="FD17" t="s">
-        <v>151</v>
       </c>
       <c r="FE17">
         <v>9.9999999999999995E-7</v>
@@ -11323,16 +11335,16 @@
         <v>25</v>
       </c>
       <c r="FI17" t="s">
+        <v>151</v>
+      </c>
+      <c r="FJ17" t="s">
+        <v>145</v>
+      </c>
+      <c r="FK17" t="s">
         <v>152</v>
       </c>
-      <c r="FJ17" t="s">
-        <v>146</v>
-      </c>
-      <c r="FK17" t="s">
+      <c r="FL17" t="s">
         <v>153</v>
-      </c>
-      <c r="FL17" t="s">
-        <v>154</v>
       </c>
       <c r="FM17">
         <v>200</v>
@@ -11359,7 +11371,7 @@
         <v>20</v>
       </c>
       <c r="FU17" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="FV17">
         <v>532</v>
@@ -11380,19 +11392,19 @@
         <v>75</v>
       </c>
       <c r="GB17" t="s">
+        <v>155</v>
+      </c>
+      <c r="GC17" t="s">
         <v>156</v>
       </c>
-      <c r="GC17" t="s">
+      <c r="GD17" t="s">
+        <v>145</v>
+      </c>
+      <c r="GE17" t="s">
         <v>157</v>
       </c>
-      <c r="GD17" t="s">
-        <v>146</v>
-      </c>
-      <c r="GE17" t="s">
+      <c r="GF17" t="s">
         <v>158</v>
-      </c>
-      <c r="GF17" t="s">
-        <v>159</v>
       </c>
       <c r="GG17">
         <v>25</v>
@@ -11410,7 +11422,7 @@
         <v>250</v>
       </c>
       <c r="GL17" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="GM17">
         <v>0.2</v>
@@ -11422,7 +11434,7 @@
         <v>25</v>
       </c>
       <c r="GP17" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="GQ17">
         <v>0.1</v>
@@ -11437,19 +11449,19 @@
         <v>150</v>
       </c>
       <c r="GU17" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="GV17">
         <v>35</v>
       </c>
       <c r="GW17" t="s">
+        <v>160</v>
+      </c>
+      <c r="GX17" t="s">
         <v>161</v>
       </c>
-      <c r="GX17" t="s">
+      <c r="GY17" t="s">
         <v>162</v>
-      </c>
-      <c r="GY17" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="18" spans="1:207" x14ac:dyDescent="0.3">
@@ -11475,8 +11487,9 @@
       <c r="G18" t="s">
         <v>130</v>
       </c>
-      <c r="H18" t="s">
-        <v>131</v>
+      <c r="H18">
+        <f t="shared" si="1"/>
+        <v>6.25</v>
       </c>
       <c r="I18">
         <v>0.16</v>
@@ -11488,19 +11501,19 @@
         <v>0.16</v>
       </c>
       <c r="L18" t="s">
+        <v>131</v>
+      </c>
+      <c r="M18" t="s">
         <v>132</v>
-      </c>
-      <c r="M18" t="s">
-        <v>133</v>
       </c>
       <c r="N18">
         <v>1</v>
       </c>
       <c r="O18" t="s">
+        <v>133</v>
+      </c>
+      <c r="P18" t="s">
         <v>134</v>
-      </c>
-      <c r="P18" t="s">
-        <v>135</v>
       </c>
       <c r="Q18">
         <v>31</v>
@@ -11509,7 +11522,7 @@
         <v>61</v>
       </c>
       <c r="S18" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="T18">
         <v>32</v>
@@ -11518,7 +11531,7 @@
         <v>62</v>
       </c>
       <c r="V18" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="W18">
         <v>180</v>
@@ -11527,7 +11540,7 @@
         <v>50</v>
       </c>
       <c r="Y18" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="Z18">
         <v>31</v>
@@ -11536,7 +11549,7 @@
         <v>61</v>
       </c>
       <c r="AB18" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AC18">
         <v>32</v>
@@ -11548,16 +11561,16 @@
         <v>900</v>
       </c>
       <c r="AF18" t="s">
+        <v>136</v>
+      </c>
+      <c r="AG18" t="s">
         <v>137</v>
       </c>
-      <c r="AG18" t="s">
+      <c r="AH18" t="s">
         <v>138</v>
       </c>
-      <c r="AH18" t="s">
+      <c r="AI18" t="s">
         <v>139</v>
-      </c>
-      <c r="AI18" t="s">
-        <v>140</v>
       </c>
       <c r="AJ18">
         <v>10</v>
@@ -11566,7 +11579,7 @@
         <v>1.5</v>
       </c>
       <c r="AL18" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AM18">
         <v>1.42</v>
@@ -11593,22 +11606,22 @@
         <v>120</v>
       </c>
       <c r="AU18" t="s">
+        <v>141</v>
+      </c>
+      <c r="AV18" t="s">
         <v>142</v>
       </c>
-      <c r="AV18" t="s">
-        <v>143</v>
-      </c>
       <c r="AW18" t="s">
+        <v>136</v>
+      </c>
+      <c r="AX18" t="s">
         <v>137</v>
       </c>
-      <c r="AX18" t="s">
+      <c r="AY18" t="s">
         <v>138</v>
       </c>
-      <c r="AY18" t="s">
+      <c r="AZ18" t="s">
         <v>139</v>
-      </c>
-      <c r="AZ18" t="s">
-        <v>140</v>
       </c>
       <c r="BA18">
         <v>10</v>
@@ -11617,7 +11630,7 @@
         <v>1.5</v>
       </c>
       <c r="BC18" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="BD18">
         <v>20</v>
@@ -11626,31 +11639,31 @@
         <v>1.5</v>
       </c>
       <c r="BF18" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="BG18">
         <v>1.42</v>
       </c>
       <c r="BH18" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="BI18">
         <v>1.42</v>
       </c>
       <c r="BJ18" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="BK18">
         <v>1.42</v>
       </c>
       <c r="BL18" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="BM18">
         <v>1.42</v>
       </c>
       <c r="BN18" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="BO18">
         <v>1.42</v>
@@ -11665,22 +11678,22 @@
         <v>120</v>
       </c>
       <c r="BS18" t="s">
+        <v>141</v>
+      </c>
+      <c r="BT18" t="s">
         <v>142</v>
       </c>
-      <c r="BT18" t="s">
-        <v>143</v>
-      </c>
       <c r="BU18" t="s">
+        <v>136</v>
+      </c>
+      <c r="BV18" t="s">
         <v>137</v>
       </c>
-      <c r="BV18" t="s">
+      <c r="BW18" t="s">
         <v>138</v>
       </c>
-      <c r="BW18" t="s">
+      <c r="BX18" t="s">
         <v>139</v>
-      </c>
-      <c r="BX18" t="s">
-        <v>140</v>
       </c>
       <c r="BY18">
         <v>10</v>
@@ -11689,13 +11702,13 @@
         <v>1.5</v>
       </c>
       <c r="CA18" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="CB18">
         <v>1.42</v>
       </c>
       <c r="CC18" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="CD18">
         <v>1.42</v>
@@ -11731,22 +11744,22 @@
         <v>120</v>
       </c>
       <c r="CO18" t="s">
+        <v>141</v>
+      </c>
+      <c r="CP18" t="s">
         <v>142</v>
       </c>
-      <c r="CP18" t="s">
-        <v>143</v>
-      </c>
       <c r="CQ18" t="s">
+        <v>136</v>
+      </c>
+      <c r="CR18" t="s">
         <v>137</v>
       </c>
-      <c r="CR18" t="s">
+      <c r="CS18" t="s">
         <v>138</v>
       </c>
-      <c r="CS18" t="s">
+      <c r="CT18" t="s">
         <v>139</v>
-      </c>
-      <c r="CT18" t="s">
-        <v>140</v>
       </c>
       <c r="CU18">
         <v>10</v>
@@ -11755,19 +11768,19 @@
         <v>1.5</v>
       </c>
       <c r="CW18" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="CX18">
         <v>1.42</v>
       </c>
       <c r="CY18" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="CZ18">
         <v>1.42</v>
       </c>
       <c r="DA18" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="DB18">
         <v>128</v>
@@ -11809,19 +11822,19 @@
         <v>120</v>
       </c>
       <c r="DO18" t="s">
+        <v>141</v>
+      </c>
+      <c r="DP18" t="s">
         <v>142</v>
       </c>
-      <c r="DP18" t="s">
-        <v>143</v>
-      </c>
       <c r="DQ18" t="s">
+        <v>144</v>
+      </c>
+      <c r="DR18" t="s">
         <v>145</v>
       </c>
-      <c r="DR18" t="s">
+      <c r="DS18" t="s">
         <v>146</v>
-      </c>
-      <c r="DS18" t="s">
-        <v>147</v>
       </c>
       <c r="DT18" t="b">
         <v>1</v>
@@ -11857,16 +11870,16 @@
         <v>1.5</v>
       </c>
       <c r="EE18" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="EF18" t="s">
+        <v>144</v>
+      </c>
+      <c r="EG18" t="s">
         <v>145</v>
       </c>
-      <c r="EG18" t="s">
+      <c r="EH18" t="s">
         <v>146</v>
-      </c>
-      <c r="EH18" t="s">
-        <v>147</v>
       </c>
       <c r="EI18" t="b">
         <v>0</v>
@@ -11902,16 +11915,16 @@
         <v>1.5</v>
       </c>
       <c r="ET18" t="s">
+        <v>147</v>
+      </c>
+      <c r="EU18" t="s">
         <v>148</v>
       </c>
-      <c r="EU18" t="s">
+      <c r="EV18" t="s">
         <v>149</v>
       </c>
-      <c r="EV18" t="s">
+      <c r="EW18" t="s">
         <v>150</v>
-      </c>
-      <c r="EW18" t="s">
-        <v>151</v>
       </c>
       <c r="EX18">
         <v>9.9999999999999995E-7</v>
@@ -11926,13 +11939,13 @@
         <v>25</v>
       </c>
       <c r="FB18" t="s">
+        <v>148</v>
+      </c>
+      <c r="FC18" t="s">
         <v>149</v>
       </c>
-      <c r="FC18" t="s">
+      <c r="FD18" t="s">
         <v>150</v>
-      </c>
-      <c r="FD18" t="s">
-        <v>151</v>
       </c>
       <c r="FE18">
         <v>9.9999999999999995E-7</v>
@@ -11947,16 +11960,16 @@
         <v>25</v>
       </c>
       <c r="FI18" t="s">
+        <v>151</v>
+      </c>
+      <c r="FJ18" t="s">
+        <v>145</v>
+      </c>
+      <c r="FK18" t="s">
         <v>152</v>
       </c>
-      <c r="FJ18" t="s">
-        <v>146</v>
-      </c>
-      <c r="FK18" t="s">
+      <c r="FL18" t="s">
         <v>153</v>
-      </c>
-      <c r="FL18" t="s">
-        <v>154</v>
       </c>
       <c r="FM18">
         <v>200</v>
@@ -11983,7 +11996,7 @@
         <v>20</v>
       </c>
       <c r="FU18" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="FV18">
         <v>532</v>
@@ -12004,19 +12017,19 @@
         <v>75</v>
       </c>
       <c r="GB18" t="s">
+        <v>155</v>
+      </c>
+      <c r="GC18" t="s">
         <v>156</v>
       </c>
-      <c r="GC18" t="s">
+      <c r="GD18" t="s">
+        <v>145</v>
+      </c>
+      <c r="GE18" t="s">
         <v>157</v>
       </c>
-      <c r="GD18" t="s">
-        <v>146</v>
-      </c>
-      <c r="GE18" t="s">
+      <c r="GF18" t="s">
         <v>158</v>
-      </c>
-      <c r="GF18" t="s">
-        <v>159</v>
       </c>
       <c r="GG18">
         <v>25</v>
@@ -12034,7 +12047,7 @@
         <v>250</v>
       </c>
       <c r="GL18" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="GM18">
         <v>0.2</v>
@@ -12046,7 +12059,7 @@
         <v>25</v>
       </c>
       <c r="GP18" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="GQ18">
         <v>0.1</v>
@@ -12061,19 +12074,19 @@
         <v>150</v>
       </c>
       <c r="GU18" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="GV18">
         <v>35</v>
       </c>
       <c r="GW18" t="s">
+        <v>160</v>
+      </c>
+      <c r="GX18" t="s">
         <v>161</v>
       </c>
-      <c r="GX18" t="s">
+      <c r="GY18" t="s">
         <v>162</v>
-      </c>
-      <c r="GY18" t="s">
-        <v>163</v>
       </c>
     </row>
   </sheetData>
@@ -12096,5 +12109,6 @@
     <mergeCell ref="CQ1:DP1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
--- a/tests/data/20250305_experiment_file.xlsx
+++ b/tests/data/20250305_experiment_file.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Desktop-PC\PycharmProjects\nomad-hysprint\tests\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB17D7A1-13D6-433B-8F34-5988C92EB259}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E75FB83-0B3C-49F2-86A2-0C062F70EC72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-30828" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1025,7 +1025,7 @@
   <dimension ref="A1:GY18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3:H18"/>
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
